--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2108164.110930627</v>
+        <v>2106559.693004296</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12870947.582331</v>
+        <v>12870947.58233101</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8452594.091505211</v>
+        <v>8452594.091505213</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.945525966093</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>140.1979489988598</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>254.1420543748742</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>279.0877300443238</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358286</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212914</v>
+        <v>17.65528330212904</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014353</v>
+        <v>83.09443458014343</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078955</v>
+        <v>123.3341395078954</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200255</v>
+        <v>221.4526530200254</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.4496229586661</v>
+        <v>167.6031879666303</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>117.5835317000399</v>
+        <v>38.74486795247972</v>
       </c>
       <c r="C12" t="n">
-        <v>44.92018329092822</v>
+        <v>123.7588470384896</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1458,10 +1458,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599636</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577506</v>
+        <v>8.062435227577406</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>143.9556929504599</v>
+        <v>16.16737725307232</v>
       </c>
       <c r="T12" t="n">
-        <v>66.35951750204937</v>
+        <v>66.35951750204927</v>
       </c>
       <c r="U12" t="n">
-        <v>98.05485807843957</v>
+        <v>98.05485807843947</v>
       </c>
       <c r="V12" t="n">
-        <v>105.0122714520378</v>
+        <v>105.0122714520377</v>
       </c>
       <c r="W12" t="n">
-        <v>123.9066674635321</v>
+        <v>123.906667463532</v>
       </c>
       <c r="X12" t="n">
-        <v>77.98466950608996</v>
+        <v>77.98466950608986</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.89438007991684</v>
+        <v>77.89438007991674</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454978</v>
+        <v>52.04366448454968</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540124032</v>
+        <v>39.45850540124022</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082484</v>
+        <v>20.82715732082474</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918165</v>
+        <v>18.64564694918155</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554373</v>
+        <v>17.63273232554363</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219406</v>
+        <v>38.95117859219396</v>
       </c>
       <c r="H13" t="n">
-        <v>23.31201683403494</v>
+        <v>23.31201683403484</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015244</v>
+        <v>74.41831073015234</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569149</v>
+        <v>94.81001934569139</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4624508371646</v>
+        <v>158.4624508371645</v>
       </c>
       <c r="V13" t="n">
-        <v>124.3493276264405</v>
+        <v>124.3493276264404</v>
       </c>
       <c r="W13" t="n">
-        <v>158.7346826392035</v>
+        <v>158.7346826392034</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164964</v>
+        <v>97.92133969164954</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470727</v>
+        <v>90.79633765470717</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.945525966093</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>237.48457607362</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>226.8947259232954</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E14" t="n">
         <v>254.1420543748742</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>74.20313236110488</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>17.65528330212904</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>83.09443458014343</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>123.3341395078954</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>199.9639427727473</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200255</v>
+        <v>221.4526530200254</v>
       </c>
       <c r="X14" t="n">
-        <v>188.9345235117327</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>38.74486795247972</v>
       </c>
       <c r="C15" t="n">
-        <v>44.92018329092822</v>
+        <v>44.92018329092812</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>29.85676475801333</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>17.28089669599626</v>
       </c>
       <c r="G15" t="n">
-        <v>8.062435227577506</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>78.83866374756082</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>16.16737725307242</v>
+        <v>16.16737725307232</v>
       </c>
       <c r="T15" t="n">
-        <v>66.35951750204937</v>
+        <v>66.35951750204927</v>
       </c>
       <c r="U15" t="n">
-        <v>98.05485807843957</v>
+        <v>98.05485807843947</v>
       </c>
       <c r="V15" t="n">
-        <v>105.0122714520378</v>
+        <v>105.0122714520377</v>
       </c>
       <c r="W15" t="n">
-        <v>123.9066674635321</v>
+        <v>123.906667463532</v>
       </c>
       <c r="X15" t="n">
-        <v>77.98466950608996</v>
+        <v>77.98466950608986</v>
       </c>
       <c r="Y15" t="n">
-        <v>156.733043827477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454978</v>
+        <v>52.04366448454968</v>
       </c>
       <c r="C16" t="n">
-        <v>39.45850540124032</v>
+        <v>39.45850540124022</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082484</v>
+        <v>20.82715732082474</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918165</v>
+        <v>18.64564694918155</v>
       </c>
       <c r="F16" t="n">
-        <v>17.63273232554373</v>
+        <v>17.63273232554363</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219406</v>
+        <v>38.95117859219396</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403494</v>
+        <v>23.31201683403484</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015244</v>
+        <v>74.41831073015234</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569149</v>
+        <v>94.81001934569139</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4624508371646</v>
+        <v>158.4624508371645</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264405</v>
+        <v>124.3493276264404</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392035</v>
+        <v>158.7346826392034</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164964</v>
+        <v>97.92133969164954</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.79633765470727</v>
+        <v>90.79633765470717</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>169.5842971761421</v>
       </c>
       <c r="H17" t="n">
-        <v>67.97353966774048</v>
+        <v>67.97353966774149</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148209104</v>
+        <v>8.193986148209023</v>
       </c>
       <c r="V17" t="n">
         <v>84.82378941306095</v>
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>144.1502248021391</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H18" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>8.766514103845651</v>
+        <v>88.22051953023528</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>139.792086379175</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>139.792086379175</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.8053726064069</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C20" t="n">
         <v>122.3444227139336</v>
@@ -2141,7 +2141,7 @@
         <v>84.82378941306095</v>
       </c>
       <c r="W20" t="n">
-        <v>106.3124996603391</v>
+        <v>106.312499660339</v>
       </c>
       <c r="X20" t="n">
         <v>126.8026316213951</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>225.8431737758271</v>
       </c>
       <c r="V21" t="n">
-        <v>80.04170344078602</v>
+        <v>231.4223835736247</v>
       </c>
       <c r="W21" t="n">
         <v>8.766514103845651</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>101.2766593093955</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>38.51542706977951</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>139.792086379175</v>
       </c>
     </row>
     <row r="23">
@@ -2397,16 +2397,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>8.766514103845651</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>182.2549990343503</v>
       </c>
       <c r="Y24" t="n">
-        <v>115.0854890316308</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.792086379175</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1143838566532</v>
+        <v>43.32229747747818</v>
       </c>
       <c r="V25" t="n">
         <v>9.209174266754047</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.5936883037941</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C26" t="n">
-        <v>250.1327384113211</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D26" t="n">
-        <v>239.5428882609965</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125753</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F26" t="n">
-        <v>291.735892382025</v>
+        <v>291.7358923820251</v>
       </c>
       <c r="G26" t="n">
-        <v>297.3726128735296</v>
+        <v>297.3726128735298</v>
       </c>
       <c r="H26" t="n">
-        <v>195.761855365128</v>
+        <v>195.7618553651281</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983019</v>
+        <v>30.30344563983033</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784458</v>
+        <v>95.74259691784471</v>
       </c>
       <c r="U26" t="n">
-        <v>135.9823018455965</v>
+        <v>135.9823018455967</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104485</v>
+        <v>212.6121051104486</v>
       </c>
       <c r="W26" t="n">
-        <v>234.1008153577266</v>
+        <v>234.1008153577267</v>
       </c>
       <c r="X26" t="n">
-        <v>254.5909473187826</v>
+        <v>254.5909473187827</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.0977852963671</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.39303029018087</v>
+        <v>51.393030290181</v>
       </c>
       <c r="C27" t="n">
-        <v>72.06848657299292</v>
+        <v>57.5683456286294</v>
       </c>
       <c r="D27" t="n">
-        <v>32.30491220495229</v>
+        <v>32.30491220495242</v>
       </c>
       <c r="E27" t="n">
-        <v>42.50492709571448</v>
+        <v>42.50492709571461</v>
       </c>
       <c r="F27" t="n">
-        <v>29.92905903369741</v>
+        <v>29.92905903369754</v>
       </c>
       <c r="G27" t="n">
-        <v>135.850750924965</v>
+        <v>20.71059756527869</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>28.81553959077348</v>
+        <v>28.8155395907736</v>
       </c>
       <c r="T27" t="n">
-        <v>194.1478331994369</v>
+        <v>79.00767983975055</v>
       </c>
       <c r="U27" t="n">
-        <v>110.7030204161406</v>
+        <v>110.7030204161407</v>
       </c>
       <c r="V27" t="n">
-        <v>117.6604337897388</v>
+        <v>117.6604337897389</v>
       </c>
       <c r="W27" t="n">
-        <v>136.5548298012332</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>90.63283184379101</v>
+        <v>158.1300255740256</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.5425424176179</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225083</v>
+        <v>64.69182682225096</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894137</v>
+        <v>52.1066677389415</v>
       </c>
       <c r="D28" t="n">
-        <v>33.47531965852589</v>
+        <v>33.47531965852602</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688271</v>
+        <v>31.29380928688283</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324478</v>
+        <v>30.28089466324491</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989511</v>
+        <v>51.59934092989524</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173599</v>
+        <v>35.96017917173612</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338069</v>
+        <v>2.674752405338197</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969108</v>
+        <v>5.881918465969235</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785349</v>
+        <v>87.06647306785362</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4581816833925</v>
+        <v>107.4581816833927</v>
       </c>
       <c r="U28" t="n">
-        <v>171.1106131748657</v>
+        <v>171.1106131748658</v>
       </c>
       <c r="V28" t="n">
-        <v>136.9974899641416</v>
+        <v>136.9974899641417</v>
       </c>
       <c r="W28" t="n">
-        <v>171.3828449769046</v>
+        <v>171.3828449769047</v>
       </c>
       <c r="X28" t="n">
-        <v>110.5695020293507</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924083</v>
+        <v>103.4444999924085</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.593688303794</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C29" t="n">
-        <v>250.132738411321</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609964</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125752</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F29" t="n">
-        <v>291.7358923820249</v>
+        <v>291.7358923820251</v>
       </c>
       <c r="G29" t="n">
-        <v>297.3726128735295</v>
+        <v>297.3726128735298</v>
       </c>
       <c r="H29" t="n">
-        <v>195.7618553651279</v>
+        <v>195.7618553651281</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983011</v>
+        <v>30.30344563983032</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784449</v>
+        <v>95.74259691784471</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455965</v>
+        <v>135.9823018455967</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104483</v>
+        <v>212.6121051104486</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577264</v>
+        <v>234.1008153577267</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187825</v>
+        <v>254.5909473187827</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.097785296367</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.39303029018079</v>
+        <v>51.393030290181</v>
       </c>
       <c r="C30" t="n">
-        <v>57.56834562862919</v>
+        <v>57.5683456286294</v>
       </c>
       <c r="D30" t="n">
-        <v>32.3049122049522</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>42.50492709571439</v>
+        <v>42.50492709571461</v>
       </c>
       <c r="F30" t="n">
-        <v>29.92905903369733</v>
+        <v>29.92905903369754</v>
       </c>
       <c r="G30" t="n">
-        <v>135.850750924965</v>
+        <v>105.529479614391</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>28.81553959077339</v>
+        <v>28.8155395907736</v>
       </c>
       <c r="T30" t="n">
-        <v>146.5048735699874</v>
+        <v>79.00767983975055</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8431737758271</v>
+        <v>110.7030204161407</v>
       </c>
       <c r="V30" t="n">
-        <v>117.6604337897387</v>
+        <v>117.6604337897389</v>
       </c>
       <c r="W30" t="n">
-        <v>136.554829801233</v>
+        <v>136.5548298012333</v>
       </c>
       <c r="X30" t="n">
-        <v>90.63283184379092</v>
+        <v>90.63283184379114</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.54254241761781</v>
+        <v>90.54254241761802</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225075</v>
+        <v>64.69182682225096</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894128</v>
+        <v>52.1066677389415</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852581</v>
+        <v>33.47531965852602</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688262</v>
+        <v>31.29380928688283</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324469</v>
+        <v>30.28089466324491</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989503</v>
+        <v>51.59934092989524</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173591</v>
+        <v>35.96017917173612</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405337983</v>
+        <v>2.674752405338197</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969022</v>
+        <v>5.881918465969235</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785341</v>
+        <v>87.06647306785362</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4581816833925</v>
+        <v>107.4581816833927</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1106131748656</v>
+        <v>171.1106131748658</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641414</v>
+        <v>136.9974899641417</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769044</v>
+        <v>171.3828449769047</v>
       </c>
       <c r="X31" t="n">
-        <v>110.5695020293506</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924082</v>
+        <v>103.4444999924085</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037941</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C32" t="n">
-        <v>250.132738411321</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609964</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125753</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F32" t="n">
-        <v>291.7358923820249</v>
+        <v>291.7358923820251</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3726128735296</v>
+        <v>297.3726128735298</v>
       </c>
       <c r="H32" t="n">
-        <v>195.7618553651279</v>
+        <v>195.7618553651281</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983014</v>
+        <v>30.30344563983033</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784452</v>
+        <v>95.74259691784471</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455965</v>
+        <v>135.9823018455967</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104484</v>
+        <v>212.6121051104486</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577265</v>
+        <v>234.1008153577267</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187825</v>
+        <v>254.5909473187827</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.0977852963671</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.39303029018082</v>
+        <v>51.393030290181</v>
       </c>
       <c r="C33" t="n">
-        <v>57.56834562862922</v>
+        <v>57.5683456286294</v>
       </c>
       <c r="D33" t="n">
-        <v>32.30491220495223</v>
+        <v>32.30491220495242</v>
       </c>
       <c r="E33" t="n">
-        <v>42.50492709571442</v>
+        <v>42.50492709571461</v>
       </c>
       <c r="F33" t="n">
-        <v>29.92905903369736</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>35.21073850964262</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>28.81553959077342</v>
+        <v>28.8155395907736</v>
       </c>
       <c r="T33" t="n">
-        <v>194.1478331994369</v>
+        <v>79.00767983975055</v>
       </c>
       <c r="U33" t="n">
-        <v>110.7030204161406</v>
+        <v>110.7030204161407</v>
       </c>
       <c r="V33" t="n">
-        <v>117.6604337897387</v>
+        <v>117.6604337897389</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>136.5548298012333</v>
       </c>
       <c r="X33" t="n">
-        <v>90.63283184379095</v>
+        <v>158.1300255740257</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.54254241761784</v>
+        <v>90.54254241761802</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225077</v>
+        <v>64.69182682225096</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894131</v>
+        <v>52.1066677389415</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852583</v>
+        <v>33.47531965852602</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688265</v>
+        <v>31.29380928688283</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324472</v>
+        <v>30.28089466324491</v>
       </c>
       <c r="G34" t="n">
-        <v>51.59934092989506</v>
+        <v>51.59934092989524</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173594</v>
+        <v>35.96017917173612</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338012</v>
+        <v>2.674752405338197</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969051</v>
+        <v>5.881918465969235</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785344</v>
+        <v>87.06647306785362</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833925</v>
+        <v>107.4581816833927</v>
       </c>
       <c r="U34" t="n">
-        <v>171.1106131748656</v>
+        <v>171.1106131748658</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641415</v>
+        <v>136.9974899641417</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769045</v>
+        <v>171.3828449769047</v>
       </c>
       <c r="X34" t="n">
-        <v>110.5695020293506</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924083</v>
+        <v>103.4444999924085</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.7763536111302</v>
+        <v>162.7763536111304</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186572</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D35" t="n">
-        <v>134.7255535683326</v>
+        <v>134.7255535683328</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199115</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893611</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G35" t="n">
-        <v>192.5552781808657</v>
+        <v>192.5552781808659</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246411</v>
+        <v>90.94452067246431</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293265</v>
+        <v>31.16496715293285</v>
       </c>
       <c r="V35" t="n">
-        <v>107.7947704177846</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W35" t="n">
-        <v>129.2834806650627</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X35" t="n">
-        <v>149.7736126261187</v>
+        <v>149.7736126261189</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="36">
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>143.9556929504599</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
         <v>225.8431737758271</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>101.3522532397323</v>
       </c>
       <c r="W36" t="n">
-        <v>152.0272591137291</v>
+        <v>31.73749510856948</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>62.48612903758865</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.640846990728671</v>
+        <v>2.64084699072887</v>
       </c>
       <c r="U37" t="n">
-        <v>66.2932784822018</v>
+        <v>66.293278482202</v>
       </c>
       <c r="V37" t="n">
-        <v>32.18015527147767</v>
+        <v>32.18015527147787</v>
       </c>
       <c r="W37" t="n">
-        <v>66.56551028424067</v>
+        <v>129.0516393218286</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336686824</v>
+        <v>5.752167336687023</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111302</v>
+        <v>162.7763536111304</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186572</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D38" t="n">
-        <v>134.7255535683326</v>
+        <v>134.7255535683328</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199115</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893611</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808658</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246411</v>
+        <v>90.94452067246431</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293266</v>
+        <v>31.16496715293286</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177846</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W38" t="n">
-        <v>129.2834806650627</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X38" t="n">
-        <v>149.7736126261187</v>
+        <v>149.7736126261189</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3588,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>151.8616765223179</v>
+        <v>156.6853012412748</v>
       </c>
       <c r="V39" t="n">
-        <v>12.84309909707494</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.640846990728671</v>
+        <v>2.64084699072887</v>
       </c>
       <c r="U40" t="n">
-        <v>66.2932784822018</v>
+        <v>66.293278482202</v>
       </c>
       <c r="V40" t="n">
-        <v>94.66628430906628</v>
+        <v>32.18015527147787</v>
       </c>
       <c r="W40" t="n">
-        <v>66.56551028424067</v>
+        <v>129.0516393218286</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336686824</v>
+        <v>5.752167336687023</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111302</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186572</v>
+        <v>145.3154037186575</v>
       </c>
       <c r="D41" t="n">
-        <v>134.7255535683326</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199115</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893611</v>
+        <v>186.9185576893614</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808657</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246411</v>
+        <v>90.94452067246436</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293265</v>
+        <v>31.16496715293291</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177846</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W41" t="n">
-        <v>129.2834806650627</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X41" t="n">
-        <v>149.7736126261187</v>
+        <v>149.773612626119</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="42">
@@ -3822,22 +3822,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>14.85977960871913</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477009</v>
       </c>
       <c r="V42" t="n">
-        <v>12.84309909707494</v>
+        <v>30.38215189910682</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.48612903758865</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.48612903758738</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.640846990728671</v>
+        <v>2.640846990728927</v>
       </c>
       <c r="U43" t="n">
-        <v>66.2932784822018</v>
+        <v>66.29327848220206</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147767</v>
+        <v>32.18015527147793</v>
       </c>
       <c r="W43" t="n">
-        <v>66.56551028424067</v>
+        <v>66.56551028424093</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336686824</v>
+        <v>5.75216733668708</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111303</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186573</v>
+        <v>145.3154037186575</v>
       </c>
       <c r="D44" t="n">
-        <v>134.7255535683327</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199115</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893612</v>
+        <v>186.9185576893614</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808658</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246419</v>
+        <v>90.94452067246436</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293274</v>
+        <v>31.16496715293292</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177847</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W44" t="n">
-        <v>129.2834806650628</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X44" t="n">
-        <v>149.7736126261188</v>
+        <v>149.773612626119</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8431737758271</v>
+        <v>132.1661266575055</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>12.8430990970752</v>
       </c>
       <c r="W45" t="n">
-        <v>31.73749510856936</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>61.58718428887931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>38.51542706977951</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>23.97070196780871</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.640846990728757</v>
+        <v>2.640846990728927</v>
       </c>
       <c r="U46" t="n">
-        <v>66.29327848220188</v>
+        <v>128.7794075197894</v>
       </c>
       <c r="V46" t="n">
-        <v>32.18015527147776</v>
+        <v>32.18015527147793</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424076</v>
+        <v>66.56551028424093</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336686909</v>
+        <v>5.75216733668708</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>457.7417364681379</v>
+        <v>807.0265455167537</v>
       </c>
       <c r="C11" t="n">
-        <v>316.1276465702997</v>
+        <v>567.14313534138</v>
       </c>
       <c r="D11" t="n">
-        <v>316.1276465702997</v>
+        <v>567.14313534138</v>
       </c>
       <c r="E11" t="n">
-        <v>316.1276465702997</v>
+        <v>310.4339895081737</v>
       </c>
       <c r="F11" t="n">
-        <v>316.1276465702997</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="G11" t="n">
         <v>28.52719148360423</v>
@@ -5039,19 +5039,19 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006784</v>
+        <v>83.71911784006772</v>
       </c>
       <c r="K11" t="n">
         <v>217.176026663414</v>
       </c>
       <c r="L11" t="n">
-        <v>419.6428849838412</v>
+        <v>419.6428849838413</v>
       </c>
       <c r="M11" t="n">
-        <v>676.5957134965338</v>
+        <v>676.595713496534</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893063</v>
+        <v>942.3201157893064</v>
       </c>
       <c r="O11" t="n">
         <v>1179.900872569998</v>
@@ -5060,31 +5060,31 @@
         <v>1348.169550998292</v>
       </c>
       <c r="Q11" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="R11" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="S11" t="n">
-        <v>1408.525954683111</v>
+        <v>1408.525954683112</v>
       </c>
       <c r="T11" t="n">
-        <v>1324.592182379936</v>
+        <v>1324.592182379937</v>
       </c>
       <c r="U11" t="n">
-        <v>1200.012243483072</v>
+        <v>1200.012243483073</v>
       </c>
       <c r="V11" t="n">
-        <v>1200.012243483072</v>
+        <v>1200.012243483073</v>
       </c>
       <c r="W11" t="n">
-        <v>976.3226949779956</v>
+        <v>976.3226949779964</v>
       </c>
       <c r="X11" t="n">
-        <v>976.3226949779956</v>
+        <v>976.3226949779964</v>
       </c>
       <c r="Y11" t="n">
-        <v>715.2624697672218</v>
+        <v>807.0265455167537</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>407.6723038417273</v>
+        <v>616.3864244931907</v>
       </c>
       <c r="C12" t="n">
-        <v>362.2983813256382</v>
+        <v>491.3774880906759</v>
       </c>
       <c r="D12" t="n">
-        <v>213.3639716643869</v>
+        <v>342.4430784294246</v>
       </c>
       <c r="E12" t="n">
-        <v>54.12651665893137</v>
+        <v>183.2056234239692</v>
       </c>
       <c r="F12" t="n">
-        <v>36.67106545085424</v>
+        <v>36.67106545085414</v>
       </c>
       <c r="G12" t="n">
         <v>28.52719148360423</v>
@@ -5118,19 +5118,19 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J12" t="n">
-        <v>42.58127776197358</v>
+        <v>42.58127776197359</v>
       </c>
       <c r="K12" t="n">
         <v>144.7567744385589</v>
       </c>
       <c r="L12" t="n">
-        <v>328.4668801148408</v>
+        <v>328.4668801148409</v>
       </c>
       <c r="M12" t="n">
-        <v>562.2047765654393</v>
+        <v>562.2047765654395</v>
       </c>
       <c r="N12" t="n">
-        <v>816.5376645420147</v>
+        <v>816.5376645420151</v>
       </c>
       <c r="O12" t="n">
         <v>1026.98277387907</v>
@@ -5139,31 +5139,31 @@
         <v>1176.550461047348</v>
       </c>
       <c r="Q12" t="n">
-        <v>1226.61330256149</v>
+        <v>1226.613302561491</v>
       </c>
       <c r="R12" t="n">
-        <v>1226.61330256149</v>
+        <v>1226.613302561491</v>
       </c>
       <c r="S12" t="n">
-        <v>1081.20351170244</v>
+        <v>1210.282618467478</v>
       </c>
       <c r="T12" t="n">
-        <v>1014.173696043804</v>
+        <v>1143.252802808843</v>
       </c>
       <c r="U12" t="n">
-        <v>915.1283848534611</v>
+        <v>1044.2074916185</v>
       </c>
       <c r="V12" t="n">
-        <v>809.0553833867563</v>
+        <v>938.134490151795</v>
       </c>
       <c r="W12" t="n">
-        <v>683.8971334235925</v>
+        <v>812.9762401886314</v>
       </c>
       <c r="X12" t="n">
-        <v>605.1247399830977</v>
+        <v>734.2038467481366</v>
       </c>
       <c r="Y12" t="n">
-        <v>526.4435479831817</v>
+        <v>655.5226547482207</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.9587444361492</v>
+        <v>188.9587444361486</v>
       </c>
       <c r="C13" t="n">
-        <v>149.1016682732802</v>
+        <v>149.1016682732797</v>
       </c>
       <c r="D13" t="n">
-        <v>128.0641356259824</v>
+        <v>128.064135625982</v>
       </c>
       <c r="E13" t="n">
-        <v>109.2301488086272</v>
+        <v>109.2301488086269</v>
       </c>
       <c r="F13" t="n">
-        <v>91.41930807575474</v>
+        <v>91.41930807575454</v>
       </c>
       <c r="G13" t="n">
-        <v>52.07468323515468</v>
+        <v>52.07468323515458</v>
       </c>
       <c r="H13" t="n">
         <v>28.52719148360423</v>
       </c>
       <c r="I13" t="n">
-        <v>38.40086731664358</v>
+        <v>38.40086731664368</v>
       </c>
       <c r="J13" t="n">
-        <v>91.27706835262663</v>
+        <v>126.7810270579757</v>
       </c>
       <c r="K13" t="n">
-        <v>234.0101879264635</v>
+        <v>269.5141466318127</v>
       </c>
       <c r="L13" t="n">
-        <v>411.1858722962078</v>
+        <v>446.6898310015571</v>
       </c>
       <c r="M13" t="n">
-        <v>594.3739921123354</v>
+        <v>629.8779508176848</v>
       </c>
       <c r="N13" t="n">
-        <v>784.0719691118544</v>
+        <v>819.5759278172039</v>
       </c>
       <c r="O13" t="n">
-        <v>822.1228047026516</v>
+        <v>984.137195948415</v>
       </c>
       <c r="P13" t="n">
-        <v>962.130329441487</v>
+        <v>997.6342881468368</v>
       </c>
       <c r="Q13" t="n">
-        <v>1042.397671093599</v>
+        <v>1049.096252526612</v>
       </c>
       <c r="R13" t="n">
-        <v>1049.096252526613</v>
+        <v>1049.096252526612</v>
       </c>
       <c r="S13" t="n">
-        <v>973.9262416880753</v>
+        <v>973.9262416880739</v>
       </c>
       <c r="T13" t="n">
-        <v>878.158545379296</v>
+        <v>878.1585453792948</v>
       </c>
       <c r="U13" t="n">
-        <v>718.0954637255944</v>
+        <v>718.0954637255933</v>
       </c>
       <c r="V13" t="n">
-        <v>592.4900822847454</v>
+        <v>592.4900822847444</v>
       </c>
       <c r="W13" t="n">
-        <v>432.1520190128227</v>
+        <v>432.1520190128218</v>
       </c>
       <c r="X13" t="n">
-        <v>333.2415748798433</v>
+        <v>333.2415748798425</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.528102501351</v>
+        <v>241.5281025013503</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>754.306339333897</v>
+        <v>774.3389143994639</v>
       </c>
       <c r="C14" t="n">
-        <v>514.4229291585232</v>
+        <v>774.3389143994639</v>
       </c>
       <c r="D14" t="n">
-        <v>285.2363373168105</v>
+        <v>545.1523225577514</v>
       </c>
       <c r="E14" t="n">
-        <v>28.52719148360423</v>
+        <v>288.4431767245452</v>
       </c>
       <c r="F14" t="n">
-        <v>28.52719148360423</v>
+        <v>288.4431767245452</v>
       </c>
       <c r="G14" t="n">
-        <v>28.52719148360423</v>
+        <v>213.4905177739344</v>
       </c>
       <c r="H14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="I14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006772</v>
+        <v>83.71911784006784</v>
       </c>
       <c r="K14" t="n">
-        <v>217.1760266634139</v>
+        <v>217.1760266634144</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838412</v>
+        <v>419.6428849838419</v>
       </c>
       <c r="M14" t="n">
-        <v>676.5957134965338</v>
+        <v>676.5957134965345</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893063</v>
+        <v>942.3201157893071</v>
       </c>
       <c r="O14" t="n">
-        <v>1179.900872569998</v>
+        <v>1179.900872569999</v>
       </c>
       <c r="P14" t="n">
         <v>1348.169550998292</v>
       </c>
       <c r="Q14" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="R14" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="S14" t="n">
-        <v>1426.359574180211</v>
+        <v>1408.525954683112</v>
       </c>
       <c r="T14" t="n">
-        <v>1426.359574180211</v>
+        <v>1324.592182379937</v>
       </c>
       <c r="U14" t="n">
-        <v>1426.359574180211</v>
+        <v>1200.012243483073</v>
       </c>
       <c r="V14" t="n">
-        <v>1426.359574180211</v>
+        <v>998.0284629045401</v>
       </c>
       <c r="W14" t="n">
-        <v>1202.670025675135</v>
+        <v>774.3389143994639</v>
       </c>
       <c r="X14" t="n">
-        <v>1011.827072632981</v>
+        <v>774.3389143994639</v>
       </c>
       <c r="Y14" t="n">
-        <v>1011.827072632981</v>
+        <v>774.3389143994639</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>407.6723038417272</v>
+        <v>487.307317728152</v>
       </c>
       <c r="C15" t="n">
-        <v>362.2983813256381</v>
+        <v>441.933395212063</v>
       </c>
       <c r="D15" t="n">
-        <v>342.4430784294248</v>
+        <v>292.9989855508118</v>
       </c>
       <c r="E15" t="n">
-        <v>183.2056234239693</v>
+        <v>262.8406373103942</v>
       </c>
       <c r="F15" t="n">
-        <v>36.67106545085424</v>
+        <v>245.3851861023172</v>
       </c>
       <c r="G15" t="n">
-        <v>28.52719148360423</v>
+        <v>108.1622053700293</v>
       </c>
       <c r="H15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="I15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="J15" t="n">
-        <v>42.58127776197358</v>
+        <v>42.5812777619736</v>
       </c>
       <c r="K15" t="n">
         <v>144.7567744385589</v>
@@ -5391,16 +5391,16 @@
         <v>1044.207491618499</v>
       </c>
       <c r="V15" t="n">
-        <v>938.1344901517942</v>
+        <v>938.1344901517944</v>
       </c>
       <c r="W15" t="n">
-        <v>812.9762401886305</v>
+        <v>812.9762401886308</v>
       </c>
       <c r="X15" t="n">
-        <v>734.2038467481357</v>
+        <v>734.2038467481359</v>
       </c>
       <c r="Y15" t="n">
-        <v>575.8876408617953</v>
+        <v>526.443547983182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.9587444361492</v>
+        <v>188.9587444361486</v>
       </c>
       <c r="C16" t="n">
-        <v>149.1016682732802</v>
+        <v>149.1016682732797</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0641356259824</v>
+        <v>128.064135625982</v>
       </c>
       <c r="E16" t="n">
-        <v>109.2301488086272</v>
+        <v>109.2301488086269</v>
       </c>
       <c r="F16" t="n">
-        <v>91.41930807575474</v>
+        <v>91.41930807575454</v>
       </c>
       <c r="G16" t="n">
-        <v>52.07468323515468</v>
+        <v>52.07468323515458</v>
       </c>
       <c r="H16" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="I16" t="n">
-        <v>28.52719148360423</v>
+        <v>38.40086731664369</v>
       </c>
       <c r="J16" t="n">
-        <v>116.9073512249362</v>
+        <v>126.7810270579757</v>
       </c>
       <c r="K16" t="n">
-        <v>259.640470798773</v>
+        <v>269.5141466318127</v>
       </c>
       <c r="L16" t="n">
-        <v>436.8161551685174</v>
+        <v>446.6898310015571</v>
       </c>
       <c r="M16" t="n">
-        <v>620.0042749846449</v>
+        <v>629.8779508176847</v>
       </c>
       <c r="N16" t="n">
-        <v>683.1918194437503</v>
+        <v>693.0654952767901</v>
       </c>
       <c r="O16" t="n">
-        <v>847.7530875749612</v>
+        <v>857.6267634080011</v>
       </c>
       <c r="P16" t="n">
-        <v>962.130329441487</v>
+        <v>997.6342881468366</v>
       </c>
       <c r="Q16" t="n">
-        <v>1042.397671093599</v>
+        <v>1049.096252526612</v>
       </c>
       <c r="R16" t="n">
-        <v>1049.096252526613</v>
+        <v>1049.096252526612</v>
       </c>
       <c r="S16" t="n">
-        <v>973.9262416880753</v>
+        <v>973.9262416880739</v>
       </c>
       <c r="T16" t="n">
-        <v>878.158545379296</v>
+        <v>878.1585453792948</v>
       </c>
       <c r="U16" t="n">
-        <v>718.0954637255944</v>
+        <v>718.0954637255933</v>
       </c>
       <c r="V16" t="n">
-        <v>592.4900822847454</v>
+        <v>592.4900822847444</v>
       </c>
       <c r="W16" t="n">
-        <v>432.1520190128227</v>
+        <v>432.1520190128218</v>
       </c>
       <c r="X16" t="n">
-        <v>333.2415748798433</v>
+        <v>333.2415748798425</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.528102501351</v>
+        <v>241.5281025013503</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.9578074646654</v>
+        <v>810.9578074646658</v>
       </c>
       <c r="C17" t="n">
-        <v>687.3775825010962</v>
+        <v>687.3775825010966</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711881</v>
+        <v>574.4941758711885</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497862</v>
+        <v>434.0882152497867</v>
       </c>
       <c r="F17" t="n">
-        <v>268.4846024370211</v>
+        <v>268.4846024370215</v>
       </c>
       <c r="G17" t="n">
-        <v>97.18733256212997</v>
+        <v>97.187332562131</v>
       </c>
       <c r="H17" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="I17" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="J17" t="n">
-        <v>83.71911784006784</v>
+        <v>83.71911784006782</v>
       </c>
       <c r="K17" t="n">
-        <v>217.1760266634139</v>
+        <v>217.1760266634141</v>
       </c>
       <c r="L17" t="n">
-        <v>419.6428849838411</v>
+        <v>419.6428849838413</v>
       </c>
       <c r="M17" t="n">
-        <v>676.5957134965339</v>
+        <v>676.5957134965341</v>
       </c>
       <c r="N17" t="n">
-        <v>942.3201157893064</v>
+        <v>942.3201157893068</v>
       </c>
       <c r="O17" t="n">
         <v>1179.900872569998</v>
@@ -5534,31 +5534,31 @@
         <v>1348.169550998292</v>
       </c>
       <c r="Q17" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="R17" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="S17" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="T17" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="U17" t="n">
         <v>1418.082820495152</v>
       </c>
       <c r="V17" t="n">
-        <v>1332.402225128423</v>
+        <v>1332.402225128424</v>
       </c>
       <c r="W17" t="n">
         <v>1225.015861835152</v>
       </c>
       <c r="X17" t="n">
-        <v>1096.932395550914</v>
+        <v>1096.932395550915</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.1753555519448</v>
+        <v>952.1753555519452</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>606.6304937933662</v>
+        <v>486.7377594701342</v>
       </c>
       <c r="C18" t="n">
-        <v>432.1774645122392</v>
+        <v>312.2847301890072</v>
       </c>
       <c r="D18" t="n">
-        <v>286.5711768333108</v>
+        <v>312.2847301890072</v>
       </c>
       <c r="E18" t="n">
-        <v>127.3337218278553</v>
+        <v>312.2847301890072</v>
       </c>
       <c r="F18" t="n">
-        <v>127.3337218278553</v>
+        <v>165.7501722158921</v>
       </c>
       <c r="G18" t="n">
-        <v>127.3337218278553</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="H18" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="I18" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="J18" t="n">
-        <v>42.58127776197358</v>
+        <v>42.5812777619736</v>
       </c>
       <c r="K18" t="n">
         <v>144.7567744385589</v>
@@ -5631,13 +5631,13 @@
         <v>991.4611943297475</v>
       </c>
       <c r="W18" t="n">
-        <v>982.6061295783883</v>
+        <v>902.349558440621</v>
       </c>
       <c r="X18" t="n">
-        <v>982.6061295783883</v>
+        <v>694.4980582350881</v>
       </c>
       <c r="Y18" t="n">
-        <v>774.8458308134343</v>
+        <v>486.7377594701342</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.7313191393366</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="C19" t="n">
-        <v>169.7313191393366</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="D19" t="n">
-        <v>169.7313191393366</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="E19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="F19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="G19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="H19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="I19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="J19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="K19" t="n">
-        <v>44.74987851702738</v>
+        <v>44.7498785170274</v>
       </c>
       <c r="L19" t="n">
-        <v>95.41513034635811</v>
+        <v>95.41513034635813</v>
       </c>
       <c r="M19" t="n">
         <v>152.092817622072</v>
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646652</v>
+        <v>810.9578074646654</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010958</v>
+        <v>687.3775825010961</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711877</v>
+        <v>574.494175871188</v>
       </c>
       <c r="E20" t="n">
-        <v>434.0882152497859</v>
+        <v>434.0882152497861</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370207</v>
+        <v>268.484602437021</v>
       </c>
       <c r="G20" t="n">
         <v>97.18733256212997</v>
       </c>
       <c r="H20" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I20" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006781</v>
+        <v>83.71911784006784</v>
       </c>
       <c r="K20" t="n">
         <v>217.176026663414</v>
@@ -5759,16 +5759,16 @@
         <v>419.6428849838412</v>
       </c>
       <c r="M20" t="n">
-        <v>676.595713496534</v>
+        <v>676.5957134965338</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893066</v>
+        <v>942.3201157893064</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569998</v>
       </c>
       <c r="P20" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998291</v>
       </c>
       <c r="Q20" t="n">
         <v>1426.359574180211</v>
@@ -5783,7 +5783,7 @@
         <v>1426.359574180211</v>
       </c>
       <c r="U20" t="n">
-        <v>1418.082820495152</v>
+        <v>1418.082820495151</v>
       </c>
       <c r="V20" t="n">
         <v>1332.402225128423</v>
@@ -5795,7 +5795,7 @@
         <v>1096.932395550914</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.1753555519449</v>
+        <v>952.1753555519448</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>336.699056150311</v>
+        <v>559.7649140233747</v>
       </c>
       <c r="C21" t="n">
-        <v>336.699056150311</v>
+        <v>385.3118847422477</v>
       </c>
       <c r="D21" t="n">
-        <v>187.7646464890597</v>
+        <v>236.3774750809964</v>
       </c>
       <c r="E21" t="n">
-        <v>28.52719148360423</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="F21" t="n">
-        <v>28.52719148360423</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="G21" t="n">
-        <v>28.52719148360423</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="H21" t="n">
-        <v>28.52719148360423</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="I21" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J21" t="n">
-        <v>42.58127776197358</v>
+        <v>42.58127776197357</v>
       </c>
       <c r="K21" t="n">
         <v>144.7567744385589</v>
@@ -5865,16 +5865,16 @@
         <v>802.3799621824356</v>
       </c>
       <c r="V21" t="n">
-        <v>721.5297566866922</v>
+        <v>568.6199787747339</v>
       </c>
       <c r="W21" t="n">
-        <v>712.6746919353329</v>
+        <v>559.7649140233747</v>
       </c>
       <c r="X21" t="n">
-        <v>712.6746919353329</v>
+        <v>559.7649140233747</v>
       </c>
       <c r="Y21" t="n">
-        <v>504.914393170379</v>
+        <v>559.7649140233747</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.7313191393366</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="C22" t="n">
-        <v>169.7313191393366</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D22" t="n">
-        <v>67.43166327126031</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E22" t="n">
-        <v>67.43166327126031</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F22" t="n">
-        <v>67.43166327126031</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G22" t="n">
-        <v>67.43166327126031</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H22" t="n">
-        <v>67.43166327126031</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I22" t="n">
-        <v>67.43166327126031</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K22" t="n">
-        <v>44.7498785170274</v>
+        <v>44.74987851702738</v>
       </c>
       <c r="L22" t="n">
-        <v>95.41513034635813</v>
+        <v>95.41513034635811</v>
       </c>
       <c r="M22" t="n">
         <v>152.092817622072</v>
@@ -5953,7 +5953,7 @@
         <v>169.7313191393366</v>
       </c>
       <c r="Y22" t="n">
-        <v>169.7313191393366</v>
+        <v>28.52719148360422</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646663</v>
+        <v>810.9578074646649</v>
       </c>
       <c r="C23" t="n">
-        <v>687.377582501097</v>
+        <v>687.3775825010956</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711889</v>
+        <v>574.4941758711875</v>
       </c>
       <c r="E23" t="n">
-        <v>434.088215249787</v>
+        <v>434.0882152497857</v>
       </c>
       <c r="F23" t="n">
-        <v>268.484602437022</v>
+        <v>268.4846024370205</v>
       </c>
       <c r="G23" t="n">
         <v>97.18733256212997</v>
       </c>
       <c r="H23" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I23" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J23" t="n">
         <v>83.71911784006781</v>
@@ -6020,19 +6020,19 @@
         <v>1426.359574180211</v>
       </c>
       <c r="U23" t="n">
-        <v>1418.082820495152</v>
+        <v>1418.082820495151</v>
       </c>
       <c r="V23" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W23" t="n">
-        <v>1225.015861835152</v>
+        <v>1225.015861835151</v>
       </c>
       <c r="X23" t="n">
-        <v>1096.932395550915</v>
+        <v>1096.932395550914</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.1753555519456</v>
+        <v>952.1753555519443</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28.52719148360423</v>
+        <v>657.686643404553</v>
       </c>
       <c r="C24" t="n">
-        <v>28.52719148360423</v>
+        <v>483.233614123426</v>
       </c>
       <c r="D24" t="n">
-        <v>28.52719148360423</v>
+        <v>334.2992044621748</v>
       </c>
       <c r="E24" t="n">
-        <v>28.52719148360423</v>
+        <v>175.0617494567192</v>
       </c>
       <c r="F24" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G24" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H24" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I24" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J24" t="n">
-        <v>42.58127776197358</v>
+        <v>42.58127776197357</v>
       </c>
       <c r="K24" t="n">
         <v>144.7567744385589</v>
@@ -6096,22 +6096,22 @@
         <v>1226.61330256149</v>
       </c>
       <c r="T24" t="n">
-        <v>1030.504380137816</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="U24" t="n">
-        <v>802.3799621824356</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="V24" t="n">
-        <v>567.2278539506929</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="W24" t="n">
-        <v>312.9904972224912</v>
+        <v>1217.758237810131</v>
       </c>
       <c r="X24" t="n">
-        <v>312.9904972224912</v>
+        <v>1033.662279189575</v>
       </c>
       <c r="Y24" t="n">
-        <v>196.7425285036723</v>
+        <v>825.9019804246211</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="C25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K25" t="n">
-        <v>44.7498785170274</v>
+        <v>44.74987851702738</v>
       </c>
       <c r="L25" t="n">
-        <v>95.41513034635813</v>
+        <v>95.41513034635811</v>
       </c>
       <c r="M25" t="n">
         <v>152.092817622072</v>
@@ -6172,10 +6172,10 @@
         <v>266.8282898703964</v>
       </c>
       <c r="S25" t="n">
-        <v>266.8282898703964</v>
+        <v>125.6241622146641</v>
       </c>
       <c r="T25" t="n">
-        <v>266.8282898703964</v>
+        <v>125.6241622146641</v>
       </c>
       <c r="U25" t="n">
         <v>81.86426577276696</v>
@@ -6184,13 +6184,13 @@
         <v>72.56206954372246</v>
       </c>
       <c r="W25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="X25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607693</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879085</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.02016448414</v>
+        <v>1125.020164484142</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970976998</v>
+        <v>855.5350970977019</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198968</v>
+        <v>560.8523775198987</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4760008799678</v>
+        <v>260.476000879968</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640416</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="I26" t="n">
-        <v>74.83913835551144</v>
+        <v>74.83913835551137</v>
       </c>
       <c r="J26" t="n">
-        <v>310.8041213954875</v>
+        <v>244.0198165380644</v>
       </c>
       <c r="K26" t="n">
-        <v>689.816480063073</v>
+        <v>491.4654771875001</v>
       </c>
       <c r="L26" t="n">
-        <v>1006.27209020959</v>
+        <v>1107.416937912873</v>
       </c>
       <c r="M26" t="n">
-        <v>1263.224918722283</v>
+        <v>1883.784256738376</v>
       </c>
       <c r="N26" t="n">
-        <v>1642.938072841145</v>
+        <v>2263.497410857238</v>
       </c>
       <c r="O26" t="n">
-        <v>1994.507581447926</v>
+        <v>2588.339398965256</v>
       </c>
       <c r="P26" t="n">
-        <v>2595.345732792077</v>
+        <v>2870.596829219639</v>
       </c>
       <c r="Q26" t="n">
-        <v>2997.716348553392</v>
+        <v>3062.775604227648</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820208</v>
+        <v>3136.837651820211</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.228110769875</v>
+        <v>3106.228110769878</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.518416913466</v>
+        <v>3009.518416913469</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.162556463368</v>
+        <v>2872.162556463371</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331602</v>
+        <v>2657.402854331605</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273293</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.774811224017</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.93866446001</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>378.5530518569316</v>
+        <v>247.603259630619</v>
       </c>
       <c r="C27" t="n">
-        <v>305.7566007731003</v>
+        <v>189.4534155612964</v>
       </c>
       <c r="D27" t="n">
-        <v>273.1253763236536</v>
+        <v>156.8221911118495</v>
       </c>
       <c r="E27" t="n">
-        <v>230.1911065300026</v>
+        <v>113.8879213181984</v>
       </c>
       <c r="F27" t="n">
-        <v>199.9597337686921</v>
+        <v>83.65654855688774</v>
       </c>
       <c r="G27" t="n">
-        <v>62.73675303640416</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="H27" t="n">
-        <v>62.73675303640416</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640416</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J27" t="n">
-        <v>76.79083931477351</v>
+        <v>76.79083931477358</v>
       </c>
       <c r="K27" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L27" t="n">
-        <v>362.6764416676407</v>
+        <v>362.6764416676408</v>
       </c>
       <c r="M27" t="n">
-        <v>596.4143381182391</v>
+        <v>596.4143381182392</v>
       </c>
       <c r="N27" t="n">
-        <v>850.7472260948146</v>
+        <v>850.7472260948148</v>
       </c>
       <c r="O27" t="n">
         <v>1061.19233543187</v>
@@ -6327,28 +6327,28 @@
         <v>1260.82286411429</v>
       </c>
       <c r="R27" t="n">
-        <v>1207.290487562904</v>
+        <v>1260.82286411429</v>
       </c>
       <c r="S27" t="n">
-        <v>1178.183881915658</v>
+        <v>1231.716258467044</v>
       </c>
       <c r="T27" t="n">
-        <v>982.0749594919844</v>
+        <v>1151.910521255175</v>
       </c>
       <c r="U27" t="n">
-        <v>870.253726748408</v>
+        <v>1040.089288511598</v>
       </c>
       <c r="V27" t="n">
-        <v>751.4048037284698</v>
+        <v>921.2403654916601</v>
       </c>
       <c r="W27" t="n">
-        <v>613.4706322120727</v>
+        <v>667.0030087634584</v>
       </c>
       <c r="X27" t="n">
-        <v>521.9223172183445</v>
+        <v>507.2757102038366</v>
       </c>
       <c r="Y27" t="n">
-        <v>430.4652036651951</v>
+        <v>299.5154114388827</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.5256054147516</v>
+        <v>302.5256054147526</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986492</v>
+        <v>249.89260769865</v>
       </c>
       <c r="D28" t="n">
-        <v>216.079153498118</v>
+        <v>216.0791534981187</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275294</v>
+        <v>184.46924512753</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414235</v>
+        <v>153.882482841424</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475901</v>
+        <v>101.7619364475904</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280625</v>
+        <v>65.43852314280645</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640416</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J28" t="n">
-        <v>171.8951109729082</v>
+        <v>149.6140700849408</v>
       </c>
       <c r="K28" t="n">
-        <v>188.1177980063313</v>
+        <v>165.8367571183639</v>
       </c>
       <c r="L28" t="n">
-        <v>512.9621774744442</v>
+        <v>491.340715299923</v>
       </c>
       <c r="M28" t="n">
-        <v>860.3531808765988</v>
+        <v>662.0071544017263</v>
       </c>
       <c r="N28" t="n">
-        <v>923.5407253357042</v>
+        <v>839.1834506869212</v>
       </c>
       <c r="O28" t="n">
-        <v>1075.580312752591</v>
+        <v>877.2342862777184</v>
       </c>
       <c r="P28" t="n">
-        <v>1203.066156777102</v>
+        <v>1138.37662798313</v>
       </c>
       <c r="Q28" t="n">
-        <v>1270.81181771489</v>
+        <v>1270.811817714892</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.870485931083</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S28" t="n">
-        <v>1176.924553539312</v>
+        <v>1176.924553539313</v>
       </c>
       <c r="T28" t="n">
-        <v>1068.380935677299</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U28" t="n">
-        <v>895.5419324703637</v>
+        <v>895.5419324703653</v>
       </c>
       <c r="V28" t="n">
-        <v>757.1606294762813</v>
+        <v>757.1606294762828</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511252</v>
+        <v>584.0466446511266</v>
       </c>
       <c r="X28" t="n">
-        <v>472.3602789649124</v>
+        <v>472.3602789649136</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331868</v>
+        <v>367.8708850331879</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.642009607692</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C29" t="n">
-        <v>1366.982677879085</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D29" t="n">
-        <v>1125.020164484139</v>
+        <v>1125.020164484141</v>
       </c>
       <c r="E29" t="n">
-        <v>855.5350970976997</v>
+        <v>855.5350970977015</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198967</v>
+        <v>560.8523775198984</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799677</v>
+        <v>260.476000879968</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640415</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="I29" t="n">
-        <v>62.73675303640415</v>
+        <v>74.83913835551137</v>
       </c>
       <c r="J29" t="n">
-        <v>399.3230802393105</v>
+        <v>194.2325062010974</v>
       </c>
       <c r="K29" t="n">
-        <v>886.9941328737591</v>
+        <v>762.5821252959862</v>
       </c>
       <c r="L29" t="n">
-        <v>1203.449743020276</v>
+        <v>1079.037735442503</v>
       </c>
       <c r="M29" t="n">
-        <v>1574.391323359059</v>
+        <v>1449.979315781285</v>
       </c>
       <c r="N29" t="n">
-        <v>2350.75864218456</v>
+        <v>1829.692469900147</v>
       </c>
       <c r="O29" t="n">
-        <v>2702.328150791341</v>
+        <v>2444.265406130957</v>
       </c>
       <c r="P29" t="n">
-        <v>2984.585581045725</v>
+        <v>2660.404988466334</v>
       </c>
       <c r="Q29" t="n">
-        <v>3062.775604227644</v>
+        <v>3062.775604227648</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.837651820208</v>
+        <v>3136.837651820211</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769874</v>
+        <v>3106.228110769878</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.518416913465</v>
+        <v>3009.518416913469</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.162556463368</v>
+        <v>2872.162556463371</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331602</v>
+        <v>2657.402854331605</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273292</v>
+        <v>2420.937384273295</v>
       </c>
       <c r="X29" t="n">
-        <v>2163.774811224017</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.93866446001</v>
+        <v>1889.938664460012</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>363.9064448424224</v>
+        <v>548.3886136201213</v>
       </c>
       <c r="C30" t="n">
-        <v>305.7566007731</v>
+        <v>490.2387695507987</v>
       </c>
       <c r="D30" t="n">
-        <v>273.1253763236534</v>
+        <v>341.3043598895474</v>
       </c>
       <c r="E30" t="n">
-        <v>230.1911065300025</v>
+        <v>298.3700900958963</v>
       </c>
       <c r="F30" t="n">
-        <v>199.959733768692</v>
+        <v>268.1387173345856</v>
       </c>
       <c r="G30" t="n">
-        <v>62.73675303640415</v>
+        <v>161.5432833806553</v>
       </c>
       <c r="H30" t="n">
-        <v>62.73675303640415</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640415</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477351</v>
+        <v>76.79083931477358</v>
       </c>
       <c r="K30" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L30" t="n">
-        <v>362.6764416676407</v>
+        <v>362.6764416676408</v>
       </c>
       <c r="M30" t="n">
-        <v>596.4143381182391</v>
+        <v>596.4143381182392</v>
       </c>
       <c r="N30" t="n">
-        <v>850.7472260948146</v>
+        <v>850.7472260948148</v>
       </c>
       <c r="O30" t="n">
         <v>1061.19233543187</v>
@@ -6570,22 +6570,22 @@
         <v>1231.716258467044</v>
       </c>
       <c r="T30" t="n">
-        <v>1083.731537689279</v>
+        <v>1151.910521255175</v>
       </c>
       <c r="U30" t="n">
-        <v>855.6071197338985</v>
+        <v>1040.089288511598</v>
       </c>
       <c r="V30" t="n">
-        <v>736.7581967139604</v>
+        <v>921.2403654916601</v>
       </c>
       <c r="W30" t="n">
-        <v>598.8240251975634</v>
+        <v>783.3061939752629</v>
       </c>
       <c r="X30" t="n">
-        <v>507.2757102038352</v>
+        <v>691.7578789815344</v>
       </c>
       <c r="Y30" t="n">
-        <v>415.8185966506859</v>
+        <v>600.3007654283849</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147509</v>
+        <v>302.5256054147526</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986486</v>
+        <v>249.89260769865</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981175</v>
+        <v>216.0791534981187</v>
       </c>
       <c r="E31" t="n">
-        <v>184.469245127529</v>
+        <v>184.46924512753</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414233</v>
+        <v>153.882482841424</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475899</v>
+        <v>101.7619364475904</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280616</v>
+        <v>65.43852314280645</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640415</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J31" t="n">
-        <v>62.73675303640415</v>
+        <v>138.595232063412</v>
       </c>
       <c r="K31" t="n">
-        <v>78.95944006982731</v>
+        <v>268.8066709229246</v>
       </c>
       <c r="L31" t="n">
-        <v>129.6246918991581</v>
+        <v>433.4606745783448</v>
       </c>
       <c r="M31" t="n">
-        <v>477.0156953013128</v>
+        <v>604.1271136801481</v>
       </c>
       <c r="N31" t="n">
-        <v>654.1919915865078</v>
+        <v>781.303409965343</v>
       </c>
       <c r="O31" t="n">
-        <v>877.2342862777143</v>
+        <v>1075.580312752593</v>
       </c>
       <c r="P31" t="n">
-        <v>1138.376627983127</v>
+        <v>1203.066156777104</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714888</v>
+        <v>1270.811817714892</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931081</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.92455353931</v>
+        <v>1176.924553539313</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677297</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703624</v>
+        <v>895.5419324703653</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762802</v>
+        <v>757.1606294762828</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511242</v>
+        <v>584.0466446511266</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649115</v>
+        <v>472.3602789649136</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.870885033186</v>
+        <v>367.8708850331879</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.642009607693</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.982677879086</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D32" t="n">
-        <v>1125.02016448414</v>
+        <v>1125.020164484142</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970977001</v>
+        <v>855.5350970977022</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198971</v>
+        <v>560.8523775198992</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799677</v>
+        <v>260.476000879968</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640415</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="I32" t="n">
-        <v>62.73675303640415</v>
+        <v>74.83913835551137</v>
       </c>
       <c r="J32" t="n">
-        <v>231.9174312189573</v>
+        <v>244.0198165380644</v>
       </c>
       <c r="K32" t="n">
-        <v>768.7895946277088</v>
+        <v>491.4654771875001</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.245204774226</v>
+        <v>1221.405689738963</v>
       </c>
       <c r="M32" t="n">
-        <v>1342.198033286918</v>
+        <v>1592.347270077745</v>
       </c>
       <c r="N32" t="n">
-        <v>1721.911187405781</v>
+        <v>1858.071672370518</v>
       </c>
       <c r="O32" t="n">
-        <v>2450.47287546268</v>
+        <v>2209.641180977299</v>
       </c>
       <c r="P32" t="n">
-        <v>2732.730305717063</v>
+        <v>2774.393740292423</v>
       </c>
       <c r="Q32" t="n">
-        <v>3062.775604227644</v>
+        <v>3062.775604227648</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.837651820208</v>
+        <v>3136.837651820211</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769875</v>
+        <v>3106.228110769878</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.518416913466</v>
+        <v>3009.518416913469</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.162556463368</v>
+        <v>2872.162556463371</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331602</v>
+        <v>2657.402854331605</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273293</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.774811224017</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.93866446001</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>262.2498666451273</v>
+        <v>480.2096300542278</v>
       </c>
       <c r="C33" t="n">
-        <v>204.1000225758048</v>
+        <v>422.0597859849052</v>
       </c>
       <c r="D33" t="n">
-        <v>171.4687981263581</v>
+        <v>389.4285615354583</v>
       </c>
       <c r="E33" t="n">
-        <v>128.5345283327072</v>
+        <v>346.4942917418072</v>
       </c>
       <c r="F33" t="n">
-        <v>98.3031555713967</v>
+        <v>199.9597337686921</v>
       </c>
       <c r="G33" t="n">
-        <v>62.73675303640415</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="H33" t="n">
-        <v>62.73675303640415</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640415</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J33" t="n">
-        <v>76.79083931477351</v>
+        <v>76.79083931477358</v>
       </c>
       <c r="K33" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L33" t="n">
-        <v>362.6764416676407</v>
+        <v>362.6764416676408</v>
       </c>
       <c r="M33" t="n">
-        <v>596.4143381182391</v>
+        <v>596.4143381182392</v>
       </c>
       <c r="N33" t="n">
-        <v>850.7472260948146</v>
+        <v>850.7472260948148</v>
       </c>
       <c r="O33" t="n">
         <v>1061.19233543187</v>
@@ -6801,28 +6801,28 @@
         <v>1260.82286411429</v>
       </c>
       <c r="R33" t="n">
-        <v>1207.290487562904</v>
+        <v>1260.82286411429</v>
       </c>
       <c r="S33" t="n">
-        <v>1178.183881915658</v>
+        <v>1231.716258467044</v>
       </c>
       <c r="T33" t="n">
-        <v>982.0749594919844</v>
+        <v>1151.910521255175</v>
       </c>
       <c r="U33" t="n">
-        <v>870.2537267484081</v>
+        <v>1040.089288511598</v>
       </c>
       <c r="V33" t="n">
-        <v>751.4048037284699</v>
+        <v>921.2403654916601</v>
       </c>
       <c r="W33" t="n">
-        <v>497.1674470002683</v>
+        <v>783.3061939752629</v>
       </c>
       <c r="X33" t="n">
-        <v>405.61913200654</v>
+        <v>623.578895415641</v>
       </c>
       <c r="Y33" t="n">
-        <v>314.1620184533907</v>
+        <v>532.1217818624915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147512</v>
+        <v>302.5256054147526</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986488</v>
+        <v>249.89260769865</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981177</v>
+        <v>216.0791534981187</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275291</v>
+        <v>184.46924512753</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414234</v>
+        <v>153.882482841424</v>
       </c>
       <c r="G34" t="n">
-        <v>101.76193644759</v>
+        <v>101.7619364475904</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280619</v>
+        <v>65.43852314280645</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640415</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J34" t="n">
-        <v>62.73675303640415</v>
+        <v>138.595232063412</v>
       </c>
       <c r="K34" t="n">
-        <v>192.948191895917</v>
+        <v>374.4829996041306</v>
       </c>
       <c r="L34" t="n">
-        <v>404.4633982513866</v>
+        <v>643.4436508864954</v>
       </c>
       <c r="M34" t="n">
-        <v>751.8544016535413</v>
+        <v>814.1100899882988</v>
       </c>
       <c r="N34" t="n">
-        <v>1099.130237614753</v>
+        <v>991.2863862734937</v>
       </c>
       <c r="O34" t="n">
-        <v>1251.16982503164</v>
+        <v>1143.32597369038</v>
       </c>
       <c r="P34" t="n">
-        <v>1264.666917230062</v>
+        <v>1270.811817714892</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714889</v>
+        <v>1270.811817714892</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931082</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539311</v>
+        <v>1176.924553539313</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677298</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U34" t="n">
-        <v>895.541932470363</v>
+        <v>895.5419324703653</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762807</v>
+        <v>757.1606294762828</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511247</v>
+        <v>584.0466446511266</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649119</v>
+        <v>472.3602789649136</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331863</v>
+        <v>367.8708850331879</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291554</v>
+        <v>955.8582442291578</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497038</v>
+        <v>809.0750081497059</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039132</v>
+        <v>672.9885904039152</v>
       </c>
       <c r="E35" t="n">
-        <v>509.379618666629</v>
+        <v>509.3796186666307</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379814</v>
+        <v>320.5729947379829</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472081</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I35" t="n">
-        <v>34.20956155279992</v>
+        <v>52.06174544571535</v>
       </c>
       <c r="J35" t="n">
-        <v>89.40148790926349</v>
+        <v>107.2536718021789</v>
       </c>
       <c r="K35" t="n">
-        <v>222.8583967326097</v>
+        <v>240.7105806255252</v>
       </c>
       <c r="L35" t="n">
-        <v>425.3252550530369</v>
+        <v>443.1774389459524</v>
       </c>
       <c r="M35" t="n">
-        <v>682.2780835657297</v>
+        <v>700.1302674586452</v>
       </c>
       <c r="N35" t="n">
-        <v>948.0024858585023</v>
+        <v>965.8546697514178</v>
       </c>
       <c r="O35" t="n">
-        <v>1371.345810074401</v>
+        <v>1203.435426532109</v>
       </c>
       <c r="P35" t="n">
-        <v>1549.5353138987</v>
+        <v>1371.704104960403</v>
       </c>
       <c r="Q35" t="n">
-        <v>1627.72533708062</v>
+        <v>1449.894128142323</v>
       </c>
       <c r="R35" t="n">
-        <v>1627.72533708062</v>
+        <v>1627.725337080623</v>
       </c>
       <c r="S35" t="n">
-        <v>1701.494087242925</v>
+        <v>1701.494087242928</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077639996</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839054</v>
+        <v>1678.998312839057</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356443</v>
+        <v>1570.114706356446</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.525331947289</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.238854547169</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.278803432317</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>208.6625908339269</v>
+        <v>320.3669519463392</v>
       </c>
       <c r="C36" t="n">
-        <v>34.20956155279992</v>
+        <v>320.3669519463392</v>
       </c>
       <c r="D36" t="n">
-        <v>34.20956155279992</v>
+        <v>171.4325422850879</v>
       </c>
       <c r="E36" t="n">
-        <v>34.20956155279992</v>
+        <v>171.4325422850879</v>
       </c>
       <c r="F36" t="n">
-        <v>34.20956155279992</v>
+        <v>171.4325422850879</v>
       </c>
       <c r="G36" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="H36" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116927</v>
+        <v>48.26364783116934</v>
       </c>
       <c r="K36" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L36" t="n">
         <v>334.1492501840365</v>
@@ -7038,28 +7038,28 @@
         <v>1232.295672630686</v>
       </c>
       <c r="R36" t="n">
-        <v>1178.7632960793</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="S36" t="n">
-        <v>1033.353505220249</v>
+        <v>1086.885881771635</v>
       </c>
       <c r="T36" t="n">
-        <v>1033.353505220249</v>
+        <v>890.7769593479618</v>
       </c>
       <c r="U36" t="n">
-        <v>805.2290872648683</v>
+        <v>662.6525413925809</v>
       </c>
       <c r="V36" t="n">
-        <v>570.0769790331256</v>
+        <v>560.2765280191139</v>
       </c>
       <c r="W36" t="n">
-        <v>416.5140910394598</v>
+        <v>528.218452151872</v>
       </c>
       <c r="X36" t="n">
-        <v>208.6625908339269</v>
+        <v>320.3669519463392</v>
       </c>
       <c r="Y36" t="n">
-        <v>208.6625908339269</v>
+        <v>320.3669519463392</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.32686361097028</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="C37" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="D37" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="E37" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="F37" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="G37" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="K37" t="n">
-        <v>50.43224858622308</v>
+        <v>50.43224858622315</v>
       </c>
       <c r="L37" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M37" t="n">
-        <v>157.7751876912677</v>
+        <v>157.7751876912678</v>
       </c>
       <c r="N37" t="n">
-        <v>220.9627321503731</v>
+        <v>220.9627321503732</v>
       </c>
       <c r="O37" t="n">
-        <v>259.0135677411703</v>
+        <v>259.0135677411704</v>
       </c>
       <c r="P37" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="Q37" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="R37" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="S37" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="T37" t="n">
-        <v>269.8431377267349</v>
+        <v>269.8431377267348</v>
       </c>
       <c r="U37" t="n">
-        <v>202.8802301689553</v>
+        <v>202.880230168955</v>
       </c>
       <c r="V37" t="n">
-        <v>170.3750228240283</v>
+        <v>170.3750228240278</v>
       </c>
       <c r="W37" t="n">
-        <v>103.1371336480277</v>
+        <v>40.01983158985759</v>
       </c>
       <c r="X37" t="n">
-        <v>97.32686361097028</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.32686361097028</v>
+        <v>34.20956155279999</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291562</v>
+        <v>955.8582442291578</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497044</v>
+        <v>809.0750081497058</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039139</v>
+        <v>672.9885904039151</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666297</v>
+        <v>509.3796186666306</v>
       </c>
       <c r="F38" t="n">
-        <v>320.572994737982</v>
+        <v>320.5729947379828</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472081</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I38" t="n">
-        <v>34.20956155279994</v>
+        <v>61.04573584278636</v>
       </c>
       <c r="J38" t="n">
-        <v>89.40148790926352</v>
+        <v>116.2376621992499</v>
       </c>
       <c r="K38" t="n">
-        <v>222.8583967326097</v>
+        <v>249.6945710225962</v>
       </c>
       <c r="L38" t="n">
-        <v>425.3252550530369</v>
+        <v>452.1614293430234</v>
       </c>
       <c r="M38" t="n">
-        <v>682.2780835657297</v>
+        <v>709.1142578557162</v>
       </c>
       <c r="N38" t="n">
-        <v>948.0024858585023</v>
+        <v>974.8386601484888</v>
       </c>
       <c r="O38" t="n">
-        <v>1185.583242639194</v>
+        <v>1212.41941692918</v>
       </c>
       <c r="P38" t="n">
-        <v>1571.609834239315</v>
+        <v>1380.688095357474</v>
       </c>
       <c r="Q38" t="n">
-        <v>1649.799857421234</v>
+        <v>1458.878118539394</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.478077639997</v>
+        <v>1636.709327477694</v>
       </c>
       <c r="S38" t="n">
-        <v>1710.478077639997</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077639997</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839055</v>
+        <v>1678.998312839057</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356444</v>
+        <v>1570.114706356446</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.52533194729</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.23885454717</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432318</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.9295569159215</v>
+        <v>208.662590833927</v>
       </c>
       <c r="C39" t="n">
-        <v>429.4765276347944</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="D39" t="n">
-        <v>429.4765276347944</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="E39" t="n">
-        <v>270.2390726293389</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="F39" t="n">
-        <v>270.2390726293389</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="G39" t="n">
-        <v>133.016091897051</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="H39" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116929</v>
+        <v>48.26364783116934</v>
       </c>
       <c r="K39" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L39" t="n">
         <v>334.1492501840365</v>
@@ -7284,19 +7284,19 @@
         <v>1232.295672630686</v>
       </c>
       <c r="U39" t="n">
-        <v>1078.90003977986</v>
+        <v>1074.027691578893</v>
       </c>
       <c r="V39" t="n">
-        <v>1065.927212409077</v>
+        <v>838.8755833471505</v>
       </c>
       <c r="W39" t="n">
-        <v>811.6898556808753</v>
+        <v>584.6382266189489</v>
       </c>
       <c r="X39" t="n">
-        <v>811.6898556808753</v>
+        <v>584.6382266189489</v>
       </c>
       <c r="Y39" t="n">
-        <v>603.9295569159215</v>
+        <v>376.8779278539951</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="C40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="D40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="E40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="F40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="G40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="H40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="K40" t="n">
-        <v>50.4322485862231</v>
+        <v>50.43224858622315</v>
       </c>
       <c r="L40" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M40" t="n">
-        <v>157.7751876912677</v>
+        <v>157.7751876912678</v>
       </c>
       <c r="N40" t="n">
-        <v>220.9627321503731</v>
+        <v>220.9627321503732</v>
       </c>
       <c r="O40" t="n">
-        <v>259.0135677411703</v>
+        <v>259.0135677411704</v>
       </c>
       <c r="P40" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="Q40" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="R40" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="S40" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="T40" t="n">
-        <v>269.8431377267349</v>
+        <v>269.8431377267348</v>
       </c>
       <c r="U40" t="n">
-        <v>202.8802301689553</v>
+        <v>202.880230168955</v>
       </c>
       <c r="V40" t="n">
-        <v>107.257720765858</v>
+        <v>170.3750228240278</v>
       </c>
       <c r="W40" t="n">
-        <v>40.01983158985734</v>
+        <v>40.01983158985759</v>
       </c>
       <c r="X40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155279999</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291549</v>
+        <v>955.8582442291572</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497032</v>
+        <v>809.0750081497051</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039127</v>
+        <v>672.9885904039143</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666286</v>
+        <v>509.3796186666297</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379812</v>
+        <v>320.5729947379818</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472081</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I41" t="n">
-        <v>34.20956155279992</v>
+        <v>150.0811082176442</v>
       </c>
       <c r="J41" t="n">
-        <v>89.40148790926349</v>
+        <v>205.2730345741078</v>
       </c>
       <c r="K41" t="n">
-        <v>222.8583967326097</v>
+        <v>338.7299433974541</v>
       </c>
       <c r="L41" t="n">
-        <v>643.0831682248637</v>
+        <v>541.1968017178813</v>
       </c>
       <c r="M41" t="n">
-        <v>900.0359967375566</v>
+        <v>798.1496302305741</v>
       </c>
       <c r="N41" t="n">
-        <v>1165.760399030329</v>
+        <v>1063.874032523347</v>
       </c>
       <c r="O41" t="n">
-        <v>1403.341155811021</v>
+        <v>1301.454789304038</v>
       </c>
       <c r="P41" t="n">
-        <v>1571.609834239315</v>
+        <v>1469.723467732332</v>
       </c>
       <c r="Q41" t="n">
-        <v>1649.799857421234</v>
+        <v>1547.913490914252</v>
       </c>
       <c r="R41" t="n">
-        <v>1710.478077639996</v>
+        <v>1627.725337080624</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.478077639996</v>
+        <v>1701.494087242929</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.478077639996</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="U41" t="n">
-        <v>1678.998312839053</v>
+        <v>1678.998312839057</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.114706356442</v>
+        <v>1570.114706356446</v>
       </c>
       <c r="W41" t="n">
-        <v>1439.525331947288</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.238854547169</v>
+        <v>1288.238854547171</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.278803432317</v>
+        <v>1120.278803432319</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>568.7457335562526</v>
+        <v>357.5970004951782</v>
       </c>
       <c r="C42" t="n">
-        <v>394.2927042751256</v>
+        <v>183.1439712140512</v>
       </c>
       <c r="D42" t="n">
-        <v>394.2927042751256</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="E42" t="n">
-        <v>235.0552492696701</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="F42" t="n">
-        <v>220.0453708770245</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="G42" t="n">
-        <v>82.82239014473663</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="H42" t="n">
-        <v>82.82239014473663</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116927</v>
+        <v>48.26364783116934</v>
       </c>
       <c r="K42" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L42" t="n">
         <v>334.1492501840365</v>
@@ -7521,19 +7521,19 @@
         <v>1232.295672630686</v>
       </c>
       <c r="U42" t="n">
-        <v>1004.171254675305</v>
+        <v>1226.350535536265</v>
       </c>
       <c r="V42" t="n">
-        <v>991.1984273045223</v>
+        <v>1195.661493213935</v>
       </c>
       <c r="W42" t="n">
-        <v>736.9610705763207</v>
+        <v>941.424136485733</v>
       </c>
       <c r="X42" t="n">
-        <v>736.9610705763207</v>
+        <v>733.5726362802002</v>
       </c>
       <c r="Y42" t="n">
-        <v>736.9610705763207</v>
+        <v>525.8123375152463</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.20956155279992</v>
+        <v>97.32686361096906</v>
       </c>
       <c r="C43" t="n">
-        <v>34.20956155279992</v>
+        <v>97.32686361096906</v>
       </c>
       <c r="D43" t="n">
-        <v>34.20956155279992</v>
+        <v>97.32686361096906</v>
       </c>
       <c r="E43" t="n">
-        <v>34.20956155279992</v>
+        <v>97.32686361096906</v>
       </c>
       <c r="F43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="G43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="H43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="K43" t="n">
-        <v>50.43224858622308</v>
+        <v>50.43224858622315</v>
       </c>
       <c r="L43" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M43" t="n">
-        <v>157.7751876912677</v>
+        <v>157.7751876912678</v>
       </c>
       <c r="N43" t="n">
-        <v>220.9627321503731</v>
+        <v>220.9627321503732</v>
       </c>
       <c r="O43" t="n">
-        <v>259.0135677411703</v>
+        <v>259.0135677411704</v>
       </c>
       <c r="P43" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="Q43" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="R43" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="S43" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="T43" t="n">
-        <v>269.8431377267349</v>
+        <v>269.8431377267347</v>
       </c>
       <c r="U43" t="n">
-        <v>202.8802301689553</v>
+        <v>202.8802301689549</v>
       </c>
       <c r="V43" t="n">
-        <v>170.3750228240283</v>
+        <v>170.3750228240277</v>
       </c>
       <c r="W43" t="n">
-        <v>103.1371336480277</v>
+        <v>103.1371336480267</v>
       </c>
       <c r="X43" t="n">
-        <v>97.32686361097028</v>
+        <v>97.32686361096906</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.32686361097028</v>
+        <v>97.32686361096906</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291544</v>
+        <v>955.8582442291572</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0750081497026</v>
+        <v>809.0750081497054</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039122</v>
+        <v>672.9885904039147</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666279</v>
+        <v>509.3796186666302</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379803</v>
+        <v>320.5729947379823</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472082</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I44" t="n">
-        <v>34.20956155279992</v>
+        <v>52.06174544571626</v>
       </c>
       <c r="J44" t="n">
-        <v>89.40148790926349</v>
+        <v>107.2536718021798</v>
       </c>
       <c r="K44" t="n">
-        <v>222.8583967326097</v>
+        <v>240.7105806255261</v>
       </c>
       <c r="L44" t="n">
-        <v>425.3252550530369</v>
+        <v>443.1774389459533</v>
       </c>
       <c r="M44" t="n">
-        <v>682.2780835657297</v>
+        <v>700.1302674586461</v>
       </c>
       <c r="N44" t="n">
-        <v>1008.680706077264</v>
+        <v>965.8546697514187</v>
       </c>
       <c r="O44" t="n">
-        <v>1246.261462857956</v>
+        <v>1203.43542653211</v>
       </c>
       <c r="P44" t="n">
-        <v>1414.53014128625</v>
+        <v>1371.704104960404</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.478077639996</v>
+        <v>1449.894128142324</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.478077639996</v>
+        <v>1627.725337080624</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.478077639996</v>
+        <v>1701.494087242929</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.478077639996</v>
+        <v>1710.47807764</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839053</v>
+        <v>1678.998312839057</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356442</v>
+        <v>1570.114706356446</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947288</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X44" t="n">
-        <v>1288.238854547168</v>
+        <v>1288.238854547171</v>
       </c>
       <c r="Y44" t="n">
-        <v>1120.278803432316</v>
+        <v>1120.278803432319</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>674.7517935168464</v>
+        <v>663.3690134737487</v>
       </c>
       <c r="C45" t="n">
-        <v>674.7517935168464</v>
+        <v>488.9159841926217</v>
       </c>
       <c r="D45" t="n">
-        <v>525.8173838555952</v>
+        <v>339.9815745313705</v>
       </c>
       <c r="E45" t="n">
-        <v>366.5799288501396</v>
+        <v>180.744119525915</v>
       </c>
       <c r="F45" t="n">
-        <v>220.0453708770245</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="G45" t="n">
-        <v>82.82239014473663</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="H45" t="n">
-        <v>82.82239014473663</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116927</v>
+        <v>48.26364783116934</v>
       </c>
       <c r="K45" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L45" t="n">
         <v>334.1492501840365</v>
@@ -7758,19 +7758,19 @@
         <v>1232.295672630686</v>
       </c>
       <c r="U45" t="n">
-        <v>1004.171254675305</v>
+        <v>1098.794534592801</v>
       </c>
       <c r="V45" t="n">
-        <v>769.0191464435622</v>
+        <v>1085.821707222018</v>
       </c>
       <c r="W45" t="n">
-        <v>736.9610705763205</v>
+        <v>831.5843504938168</v>
       </c>
       <c r="X45" t="n">
-        <v>736.9610705763205</v>
+        <v>831.5843504938168</v>
       </c>
       <c r="Y45" t="n">
-        <v>674.7517935168464</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73.11403334045599</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="C46" t="n">
-        <v>73.11403334045599</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="D46" t="n">
-        <v>73.11403334045599</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="E46" t="n">
-        <v>73.11403334045599</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="F46" t="n">
-        <v>73.11403334045599</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="G46" t="n">
-        <v>73.11403334045599</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="H46" t="n">
-        <v>73.11403334045599</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I46" t="n">
-        <v>73.11403334045599</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155279992</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="K46" t="n">
-        <v>50.43224858622308</v>
+        <v>50.43224858622315</v>
       </c>
       <c r="L46" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M46" t="n">
-        <v>157.7751876912677</v>
+        <v>157.7751876912678</v>
       </c>
       <c r="N46" t="n">
-        <v>220.9627321503731</v>
+        <v>220.9627321503732</v>
       </c>
       <c r="O46" t="n">
-        <v>259.0135677411703</v>
+        <v>259.0135677411704</v>
       </c>
       <c r="P46" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="Q46" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="R46" t="n">
-        <v>248.2978296690783</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="S46" t="n">
-        <v>248.2978296690783</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="T46" t="n">
-        <v>245.6303074562209</v>
+        <v>269.8431377267347</v>
       </c>
       <c r="U46" t="n">
-        <v>178.6673998984413</v>
+        <v>139.7629281107858</v>
       </c>
       <c r="V46" t="n">
-        <v>146.1621925535142</v>
+        <v>107.2577207658586</v>
       </c>
       <c r="W46" t="n">
-        <v>78.92430337751347</v>
+        <v>40.01983158985765</v>
       </c>
       <c r="X46" t="n">
-        <v>73.11403334045599</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.11403334045599</v>
+        <v>34.20956155279999</v>
       </c>
     </row>
   </sheetData>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>132.8956545637875</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>409.5209479663838</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>68.05534327545382</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10039,7 +10039,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>281.6287460050269</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,16 +10121,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>400.6607724309486</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>48.35444839099301</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10285,10 +10285,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>306.7626840794376</v>
       </c>
       <c r="Q32" t="n">
-        <v>139.2591146490622</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10507,16 +10507,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>105.3602501282269</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.91716300316027</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>254.945525966093</v>
       </c>
       <c r="C11" t="n">
-        <v>97.28662707476022</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232954</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E11" t="n">
-        <v>254.1420543748742</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443239</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284.7244505358285</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274269</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>199.9639427727474</v>
+        <v>199.9639427727473</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.9427849810815</v>
+        <v>241.9427849810814</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>90.84643499203563</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>254.945525966093</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443239</v>
+        <v>279.0877300443238</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358286</v>
+        <v>210.5213181747236</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1136930274269</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212896</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014353</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078955</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>199.9639427727474</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>53.00826146934881</v>
+        <v>241.9427849810814</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.4496229586661</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="15">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-9.918466048475239e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632736.1960485141</v>
+        <v>632736.1960485142</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632736.1960485141</v>
+        <v>632736.1960485142</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778553</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>785383.767928842</v>
+        <v>785383.7679288421</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>785383.767928842</v>
+        <v>785383.7679288421</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>785383.7679288419</v>
+        <v>785383.7679288421</v>
       </c>
     </row>
     <row r="13">
@@ -26314,37 +26314,37 @@
         <v>696384.8879094826</v>
       </c>
       <c r="C2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094827</v>
       </c>
       <c r="D2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094827</v>
       </c>
       <c r="E2" t="n">
         <v>597584.1851569294</v>
       </c>
       <c r="F2" t="n">
-        <v>597584.1851569295</v>
+        <v>597584.1851569294</v>
       </c>
       <c r="G2" t="n">
+        <v>697885.504384641</v>
+      </c>
+      <c r="H2" t="n">
         <v>697885.5043846407</v>
-      </c>
-      <c r="H2" t="n">
-        <v>697885.5043846408</v>
       </c>
       <c r="I2" t="n">
         <v>697885.5043846406</v>
       </c>
       <c r="J2" t="n">
-        <v>697885.50438464</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="K2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="M2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="N2" t="n">
         <v>697885.5043846408</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224332</v>
+        <v>766266.5351224333</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.12268774914</v>
+        <v>92112.12268774907</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111884.0815365098</v>
+        <v>111884.0815365101</v>
       </c>
       <c r="K3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.12268774913</v>
+        <v>92112.12268774907</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.86775413105</v>
+        <v>83853.86775413103</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>161674.3217732035</v>
+        <v>161674.3217732036</v>
       </c>
       <c r="F4" t="n">
-        <v>161674.3217732035</v>
+        <v>161674.3217732036</v>
       </c>
       <c r="G4" t="n">
         <v>228781.8774821127</v>
@@ -26476,13 +26476,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47553.01820892901</v>
+        <v>47553.01820892902</v>
       </c>
       <c r="F5" t="n">
-        <v>47553.01820892901</v>
+        <v>47553.01820892902</v>
       </c>
       <c r="G5" t="n">
-        <v>57232.73576172449</v>
+        <v>57232.7357617245</v>
       </c>
       <c r="H5" t="n">
         <v>57232.73576172449</v>
@@ -26491,25 +26491,25 @@
         <v>57232.73576172449</v>
       </c>
       <c r="J5" t="n">
-        <v>72488.96662948877</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.96662948877</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.96662948877</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="M5" t="n">
-        <v>59620.18961222711</v>
+        <v>59620.18961222714</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222711</v>
+        <v>59620.18961222714</v>
       </c>
       <c r="O5" t="n">
-        <v>59620.1896122271</v>
+        <v>59620.18961222714</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.1896122271</v>
+        <v>59620.18961222714</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195141.3279777514</v>
+        <v>195136.9143998832</v>
       </c>
       <c r="C6" t="n">
-        <v>195141.3279777514</v>
+        <v>195136.9143998834</v>
       </c>
       <c r="D6" t="n">
-        <v>195141.3279777514</v>
+        <v>195136.9143998834</v>
       </c>
       <c r="E6" t="n">
-        <v>-377909.6899476362</v>
+        <v>-378204.693827718</v>
       </c>
       <c r="F6" t="n">
-        <v>388356.8451747971</v>
+        <v>388061.8412947153</v>
       </c>
       <c r="G6" t="n">
-        <v>319758.7684530544</v>
+        <v>319758.7684530546</v>
       </c>
       <c r="H6" t="n">
-        <v>411870.8911408036</v>
+        <v>411870.8911408035</v>
       </c>
       <c r="I6" t="n">
         <v>411870.8911408034</v>
       </c>
       <c r="J6" t="n">
-        <v>282353.3456241802</v>
+        <v>282353.3456241806</v>
       </c>
       <c r="K6" t="n">
-        <v>394237.4271606904</v>
+        <v>394237.4271606901</v>
       </c>
       <c r="L6" t="n">
-        <v>302125.3044729412</v>
+        <v>302125.3044729415</v>
       </c>
       <c r="M6" t="n">
-        <v>325341.7065457524</v>
+        <v>325341.7065457526</v>
       </c>
       <c r="N6" t="n">
         <v>409195.5742998837</v>
       </c>
       <c r="O6" t="n">
+        <v>409195.5742998834</v>
+      </c>
+      <c r="P6" t="n">
         <v>409195.5742998836</v>
-      </c>
-      <c r="P6" t="n">
-        <v>409195.5742998837</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G2" t="n">
         <v>242.928469057074</v>
@@ -26707,25 +26707,25 @@
         <v>242.928469057074</v>
       </c>
       <c r="J2" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M2" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="N2" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="O2" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="P2" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773453</v>
+        <v>694.0053563773454</v>
       </c>
       <c r="F3" t="n">
         <v>694.0053563773453</v>
@@ -26799,37 +26799,37 @@
         <v>356.5898935450529</v>
       </c>
       <c r="F4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.589893545053</v>
       </c>
       <c r="G4" t="n">
-        <v>356.5898935450528</v>
+        <v>356.589893545053</v>
       </c>
       <c r="H4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="I4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="J4" t="n">
-        <v>784.209412955052</v>
+        <v>784.2094129550528</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550519</v>
+        <v>784.2094129550528</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550519</v>
+        <v>784.2094129550528</v>
       </c>
       <c r="M4" t="n">
-        <v>427.619519409999</v>
+        <v>427.6195194099998</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194099992</v>
+        <v>427.6195194099998</v>
       </c>
       <c r="O4" t="n">
-        <v>427.6195194099989</v>
+        <v>427.6195194099998</v>
       </c>
       <c r="P4" t="n">
-        <v>427.6195194099989</v>
+        <v>427.6195194099999</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M2" t="n">
         <v>104.8173346926638</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773453</v>
+        <v>694.0053563773454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.589893545053</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194099992</v>
+        <v>427.6195194100001</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.589893545053</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="I11" t="n">
-        <v>102.9155217242246</v>
+        <v>102.9155217242245</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.33000427628923</v>
+        <v>40.3300042762892</v>
       </c>
       <c r="S11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.94965194982747</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C12" t="n">
-        <v>127.7883156973875</v>
+        <v>48.94965194982611</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28178,16 +28178,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>127.7883156973875</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H12" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I12" t="n">
-        <v>48.12670030601735</v>
+        <v>48.12670030601734</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>52.99705278587241</v>
+        <v>52.9970527858724</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T12" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U12" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V12" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W12" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X12" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y12" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="I13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="J13" t="n">
-        <v>91.92573114653005</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="K13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="L13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="M13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="N13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="P13" t="n">
-        <v>127.7883156973875</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.7883156973875</v>
+        <v>98.69197501825944</v>
       </c>
       <c r="R13" t="n">
-        <v>127.7883156973875</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242246</v>
@@ -28375,25 +28375,25 @@
         <v>40.33000427628923</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D15" t="n">
-        <v>127.7883156973875</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G15" t="n">
-        <v>127.7883156973875</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>97.81846504080859</v>
+        <v>18.97980129324777</v>
       </c>
       <c r="I15" t="n">
         <v>48.12670030601735</v>
@@ -28454,25 +28454,25 @@
         <v>52.99705278587241</v>
       </c>
       <c r="S15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.94965194982737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="I16" t="n">
-        <v>117.8149057650245</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="J16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="K16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="L16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="M16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="P16" t="n">
-        <v>101.8991410788929</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.7883156973875</v>
+        <v>98.69197501825958</v>
       </c>
       <c r="R16" t="n">
-        <v>127.7883156973875</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="17">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3.294840762499632</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I18" t="n">
         <v>48.12670030601735</v>
@@ -28703,10 +28703,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>242.928469057074</v>
+        <v>163.4744636306843</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>40.03989380276232</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -28728,7 +28728,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>6.641876267394167</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>97.81846504080859</v>
       </c>
       <c r="I21" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>152.7588837086392</v>
+        <v>1.378203575800569</v>
       </c>
       <c r="W21" t="n">
         <v>242.928469057074</v>
@@ -28946,7 +28946,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28962,7 +28962,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>47.33881370881687</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -28980,7 +28980,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>38.51542706977951</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>78.79256697291979</v>
       </c>
     </row>
     <row r="23">
@@ -29117,16 +29117,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.850750924965</v>
@@ -29168,22 +29168,22 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>23.5179861691272</v>
       </c>
       <c r="Y24" t="n">
-        <v>90.5972067456736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29244,13 +29244,13 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S25" t="n">
-        <v>202.20662642754</v>
+        <v>62.41454004836498</v>
       </c>
       <c r="T25" t="n">
         <v>222.598335043079</v>
       </c>
       <c r="U25" t="n">
-        <v>103.136382677899</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V25" t="n">
         <v>242.928469057074</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J26" t="n">
-        <v>13.50243198298939</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="K26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="L26" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="N26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="O26" t="n">
-        <v>115.1401533596865</v>
+        <v>20.08731463093641</v>
       </c>
       <c r="P26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="R26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="27">
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C27" t="n">
-        <v>100.6400124153228</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H27" t="n">
         <v>97.81846504080859</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W27" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>115.1401533596865</v>
+        <v>47.64295962945187</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J28" t="n">
-        <v>115.1401533596865</v>
+        <v>92.63405145264865</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>114.4739122349932</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="O28" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Q28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I29" t="n">
-        <v>102.9155217242246</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J29" t="n">
-        <v>115.1401533596866</v>
+        <v>64.8499408981035</v>
       </c>
       <c r="K29" t="n">
-        <v>76.1633184506321</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="L29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="N29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="O29" t="n">
-        <v>115.1401533596866</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>115.1401533596866</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="R29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="30">
@@ -29588,25 +29588,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C30" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D30" t="n">
-        <v>115.1401533596866</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F30" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>30.32127131057402</v>
       </c>
       <c r="H30" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>48.12670030601735</v>
@@ -29639,25 +29639,25 @@
         <v>52.99705278587241</v>
       </c>
       <c r="S30" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T30" t="n">
-        <v>47.64295962944954</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V30" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W30" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X30" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y30" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J31" t="n">
-        <v>38.51542706977951</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="N31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="O31" t="n">
-        <v>23.81839333150066</v>
+        <v>95.77254292346379</v>
       </c>
       <c r="P31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Q31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I32" t="n">
-        <v>102.9155217242246</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="K32" t="n">
-        <v>83.3447435757092</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="L32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="N32" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="P32" t="n">
-        <v>115.1401533596865</v>
+        <v>93.72608449311814</v>
       </c>
       <c r="Q32" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F33" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>100.6400124153224</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>97.81846504080859</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X33" t="n">
-        <v>115.1401533596865</v>
+        <v>47.64295962945181</v>
       </c>
       <c r="Y33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J34" t="n">
-        <v>38.51542706977951</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="N34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="O34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I35" t="n">
-        <v>102.9155217242246</v>
+        <v>120.9480307069674</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30022,37 +30022,37 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>187.6389570052599</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>10.02103575354036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.33000427628923</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="S35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="36">
@@ -30065,10 +30065,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -30077,7 +30077,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>97.81846504080859</v>
@@ -30110,22 +30110,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>131.448333909693</v>
       </c>
       <c r="W36" t="n">
-        <v>99.66772404719052</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>104.7606920610392</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30195,19 +30195,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T37" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U37" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V37" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W37" t="n">
-        <v>219.9574880523503</v>
+        <v>157.4713590147624</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I38" t="n">
-        <v>102.9155217242246</v>
+        <v>130.0227684817866</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30262,34 +30262,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>219.9574880523503</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>101.6211358103931</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="S38" t="n">
-        <v>145.4435989995167</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="T38" t="n">
         <v>210.882750277531</v>
       </c>
       <c r="U38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30308,16 +30308,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I39" t="n">
         <v>48.12670030601735</v>
@@ -30356,10 +30356,10 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U39" t="n">
-        <v>73.98149725350922</v>
+        <v>69.15787253455227</v>
       </c>
       <c r="V39" t="n">
-        <v>219.9574880523503</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30432,19 +30432,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U40" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V40" t="n">
-        <v>157.4713590147617</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W40" t="n">
-        <v>219.9574880523503</v>
+        <v>157.4713590147624</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I41" t="n">
-        <v>102.9155217242246</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>219.9574880523503</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>101.6211358103917</v>
+        <v>120.9480307069679</v>
       </c>
       <c r="S41" t="n">
-        <v>145.4435989995167</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="T41" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="42">
@@ -30542,22 +30542,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>130.2094327846648</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H42" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30593,19 +30593,19 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V42" t="n">
-        <v>219.9574880523503</v>
+        <v>202.4184352503185</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>117.3458511443486</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30627,7 +30627,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>82.93491898534387</v>
       </c>
       <c r="G43" t="n">
         <v>166.7394942895816</v>
@@ -30669,19 +30669,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U43" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V43" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W43" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X43" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I44" t="n">
-        <v>102.9155217242246</v>
+        <v>120.9480307069683</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>61.29113153410287</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>219.9574880523502</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.33000427628923</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="S44" t="n">
-        <v>145.4435989995167</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="T44" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="45">
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H45" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30830,19 +30830,19 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>93.67704711832152</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W45" t="n">
-        <v>219.9574880523502</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>144.095511488425</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30876,7 +30876,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>38.51542706977951</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,25 +30900,25 @@
         <v>46.71019281646672</v>
       </c>
       <c r="R46" t="n">
-        <v>97.05136985784686</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S46" t="n">
         <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U46" t="n">
-        <v>219.9574880523502</v>
+        <v>157.4713590147627</v>
       </c>
       <c r="V46" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W46" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -31756,10 +31756,10 @@
         <v>28.5727933909527</v>
       </c>
       <c r="I11" t="n">
-        <v>107.5603678461813</v>
+        <v>107.5603678461814</v>
       </c>
       <c r="J11" t="n">
-        <v>236.7953250887707</v>
+        <v>236.7953250887708</v>
       </c>
       <c r="K11" t="n">
         <v>354.894809452401</v>
@@ -31771,10 +31771,10 @@
         <v>489.8945448562554</v>
       </c>
       <c r="N11" t="n">
-        <v>497.8215507610077</v>
+        <v>497.8215507610078</v>
       </c>
       <c r="O11" t="n">
-        <v>470.0787738264258</v>
+        <v>470.078773826426</v>
       </c>
       <c r="P11" t="n">
         <v>401.2013578040512</v>
@@ -31786,10 +31786,10 @@
         <v>175.2555335378429</v>
       </c>
       <c r="S11" t="n">
-        <v>63.57647058672868</v>
+        <v>63.57647058672869</v>
       </c>
       <c r="T11" t="n">
-        <v>12.21309928660031</v>
+        <v>12.21309928660032</v>
       </c>
       <c r="U11" t="n">
         <v>0.2231977025535179</v>
@@ -31832,46 +31832,46 @@
         <v>1.492766238245611</v>
       </c>
       <c r="H12" t="n">
-        <v>14.41697919568787</v>
+        <v>14.41697919568788</v>
       </c>
       <c r="I12" t="n">
-        <v>51.39567969398265</v>
+        <v>51.39567969398266</v>
       </c>
       <c r="J12" t="n">
         <v>141.0336734124943</v>
       </c>
       <c r="K12" t="n">
-        <v>241.0490113749502</v>
+        <v>241.0490113749503</v>
       </c>
       <c r="L12" t="n">
-        <v>324.1201430892498</v>
+        <v>324.1201430892499</v>
       </c>
       <c r="M12" t="n">
-        <v>378.2329192256531</v>
+        <v>378.2329192256532</v>
       </c>
       <c r="N12" t="n">
-        <v>388.2436191303792</v>
+        <v>388.2436191303793</v>
       </c>
       <c r="O12" t="n">
-        <v>355.1670619566212</v>
+        <v>355.1670619566213</v>
       </c>
       <c r="P12" t="n">
-        <v>285.0528793014798</v>
+        <v>285.0528793014799</v>
       </c>
       <c r="Q12" t="n">
         <v>190.5503008679836</v>
       </c>
       <c r="R12" t="n">
-        <v>92.68245117809154</v>
+        <v>92.68245117809155</v>
       </c>
       <c r="S12" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T12" t="n">
-        <v>6.016895495384718</v>
+        <v>6.016895495384719</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09820830514773758</v>
+        <v>0.0982083051477376</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31917,7 +31917,7 @@
         <v>37.63556916223375</v>
       </c>
       <c r="J13" t="n">
-        <v>88.47999436961661</v>
+        <v>88.47999436961662</v>
       </c>
       <c r="K13" t="n">
         <v>145.3998107295487</v>
@@ -31929,28 +31929,28 @@
         <v>196.1759731149928</v>
       </c>
       <c r="N13" t="n">
-        <v>191.511346949178</v>
+        <v>191.5113469491781</v>
       </c>
       <c r="O13" t="n">
-        <v>176.8917259172945</v>
+        <v>176.8917259172946</v>
       </c>
       <c r="P13" t="n">
-        <v>151.3614305121999</v>
+        <v>151.3614305122</v>
       </c>
       <c r="Q13" t="n">
-        <v>104.7948088129791</v>
+        <v>104.7948088129792</v>
       </c>
       <c r="R13" t="n">
-        <v>56.27131955151391</v>
+        <v>56.27131955151392</v>
       </c>
       <c r="S13" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T13" t="n">
-        <v>5.347254385202494</v>
+        <v>5.347254385202495</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06826282193875534</v>
+        <v>0.06826282193875535</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.74942056208442</v>
+        <v>55.74942056208448</v>
       </c>
       <c r="K11" t="n">
-        <v>134.8049584074204</v>
+        <v>134.8049584074205</v>
       </c>
       <c r="L11" t="n">
-        <v>204.5119781014416</v>
+        <v>204.5119781014417</v>
       </c>
       <c r="M11" t="n">
         <v>259.5483116289827</v>
@@ -35422,13 +35422,13 @@
         <v>268.4084871644168</v>
       </c>
       <c r="O11" t="n">
-        <v>239.9805624047391</v>
+        <v>239.9805624047392</v>
       </c>
       <c r="P11" t="n">
-        <v>169.9683620487816</v>
+        <v>169.9683620487817</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.9798213958783</v>
+        <v>78.97982139587836</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K12" t="n">
-        <v>103.2075724005912</v>
+        <v>103.2075724005913</v>
       </c>
       <c r="L12" t="n">
         <v>185.5657633093757</v>
       </c>
       <c r="M12" t="n">
-        <v>236.0988853036348</v>
+        <v>236.0988853036349</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9019070470459</v>
+        <v>256.9019070470461</v>
       </c>
       <c r="O12" t="n">
-        <v>212.5708175121767</v>
+        <v>212.5708175121769</v>
       </c>
       <c r="P12" t="n">
         <v>151.0784718871496</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.56852678196205</v>
+        <v>50.56852678196208</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35562,34 +35562,34 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.973409932362983</v>
+        <v>9.973409932363083</v>
       </c>
       <c r="J13" t="n">
-        <v>53.41030407675055</v>
+        <v>89.27288862760813</v>
       </c>
       <c r="K13" t="n">
-        <v>144.1748682564008</v>
+        <v>144.1748682564009</v>
       </c>
       <c r="L13" t="n">
-        <v>178.9653377472166</v>
+        <v>178.9653377472167</v>
       </c>
       <c r="M13" t="n">
-        <v>185.0385048647753</v>
+        <v>185.0385048647754</v>
       </c>
       <c r="N13" t="n">
-        <v>191.6141181813323</v>
+        <v>191.6141181813325</v>
       </c>
       <c r="O13" t="n">
-        <v>38.43518746545175</v>
+        <v>166.2235031628394</v>
       </c>
       <c r="P13" t="n">
-        <v>141.4217421604399</v>
+        <v>13.63342646305236</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.0781228809208</v>
+        <v>51.98178220179275</v>
       </c>
       <c r="R13" t="n">
-        <v>6.766243871731945</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35799,34 +35799,34 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.973409932363083</v>
       </c>
       <c r="J16" t="n">
-        <v>89.27288862760801</v>
+        <v>89.27288862760811</v>
       </c>
       <c r="K16" t="n">
-        <v>144.1748682564008</v>
+        <v>144.1748682564009</v>
       </c>
       <c r="L16" t="n">
         <v>178.9653377472166</v>
       </c>
       <c r="M16" t="n">
-        <v>185.0385048647753</v>
+        <v>185.0385048647754</v>
       </c>
       <c r="N16" t="n">
         <v>63.82580248394484</v>
       </c>
       <c r="O16" t="n">
-        <v>166.2235031628393</v>
+        <v>166.2235031628394</v>
       </c>
       <c r="P16" t="n">
-        <v>115.5325675419452</v>
+        <v>141.4217421604399</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.0781228809208</v>
+        <v>51.98178220179287</v>
       </c>
       <c r="R16" t="n">
-        <v>6.766243871731945</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>204.5119781014416</v>
       </c>
       <c r="M20" t="n">
-        <v>259.5483116289826</v>
+        <v>259.5483116289827</v>
       </c>
       <c r="N20" t="n">
         <v>268.4084871644168</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12.22463163546189</v>
+        <v>12.22463163546176</v>
       </c>
       <c r="J26" t="n">
-        <v>238.3484677171476</v>
+        <v>170.8895739217708</v>
       </c>
       <c r="K26" t="n">
-        <v>382.8407663308944</v>
+        <v>249.9451117671068</v>
       </c>
       <c r="L26" t="n">
-        <v>319.6521314611281</v>
+        <v>622.1731926518921</v>
       </c>
       <c r="M26" t="n">
-        <v>259.5483116289827</v>
+        <v>784.2094129550528</v>
       </c>
       <c r="N26" t="n">
-        <v>383.5486405241032</v>
+        <v>383.5486405241031</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1207157644256</v>
+        <v>328.1232203111294</v>
       </c>
       <c r="P26" t="n">
-        <v>606.9072235799507</v>
+        <v>285.108515408468</v>
       </c>
       <c r="Q26" t="n">
-        <v>406.4349654154694</v>
+        <v>194.1199747555646</v>
       </c>
       <c r="R26" t="n">
-        <v>140.5265689563797</v>
+        <v>74.81014908339711</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>110.2609676126303</v>
+        <v>87.75486570559248</v>
       </c>
       <c r="K28" t="n">
         <v>16.3865525590133</v>
       </c>
       <c r="L28" t="n">
-        <v>328.1256358263766</v>
+        <v>328.7918769510698</v>
       </c>
       <c r="M28" t="n">
-        <v>350.9000034365199</v>
+        <v>172.3903425270741</v>
       </c>
       <c r="N28" t="n">
-        <v>63.82580248394484</v>
+        <v>178.9659558436312</v>
       </c>
       <c r="O28" t="n">
-        <v>153.5753408251382</v>
+        <v>38.43518746545175</v>
       </c>
       <c r="P28" t="n">
-        <v>128.7735798227388</v>
+        <v>263.7801431367798</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.42996054321975</v>
+        <v>133.7729189209711</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>12.22463163546176</v>
       </c>
       <c r="J29" t="n">
-        <v>339.9861890938448</v>
+        <v>120.5993614601879</v>
       </c>
       <c r="K29" t="n">
-        <v>492.5970228630794</v>
+        <v>574.0905243382715</v>
       </c>
       <c r="L29" t="n">
-        <v>319.6521314611282</v>
+        <v>319.652131461128</v>
       </c>
       <c r="M29" t="n">
-        <v>374.6884649886692</v>
+        <v>374.688464988669</v>
       </c>
       <c r="N29" t="n">
-        <v>784.2094129550519</v>
+        <v>383.5486405241031</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1207157644257</v>
+        <v>620.7807436674844</v>
       </c>
       <c r="P29" t="n">
-        <v>285.1085154084682</v>
+        <v>218.3228104397746</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.9798213958783</v>
+        <v>406.4349654154693</v>
       </c>
       <c r="R29" t="n">
-        <v>74.81014908339732</v>
+        <v>74.81014908339711</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>76.62472628990683</v>
       </c>
       <c r="K31" t="n">
-        <v>16.3865525590133</v>
+        <v>131.5267059186996</v>
       </c>
       <c r="L31" t="n">
-        <v>51.17702204982902</v>
+        <v>166.3171754095154</v>
       </c>
       <c r="M31" t="n">
-        <v>350.90000343652</v>
+        <v>172.3903425270741</v>
       </c>
       <c r="N31" t="n">
-        <v>178.9659558436314</v>
+        <v>178.9659558436312</v>
       </c>
       <c r="O31" t="n">
-        <v>225.2952471628349</v>
+        <v>297.249396754798</v>
       </c>
       <c r="P31" t="n">
-        <v>263.78014313678</v>
+        <v>128.7735798227387</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.7729189209713</v>
+        <v>68.42996054321962</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>12.22463163546176</v>
       </c>
       <c r="J32" t="n">
-        <v>170.8895739217709</v>
+        <v>170.8895739217708</v>
       </c>
       <c r="K32" t="n">
-        <v>542.2951145542944</v>
+        <v>249.9451117671068</v>
       </c>
       <c r="L32" t="n">
-        <v>319.6521314611281</v>
+        <v>737.3133460115785</v>
       </c>
       <c r="M32" t="n">
-        <v>259.5483116289827</v>
+        <v>374.688464988669</v>
       </c>
       <c r="N32" t="n">
-        <v>383.5486405241033</v>
+        <v>268.4084871644168</v>
       </c>
       <c r="O32" t="n">
-        <v>735.920897027171</v>
+        <v>355.1207157644254</v>
       </c>
       <c r="P32" t="n">
-        <v>285.1085154084681</v>
+        <v>570.4571306213373</v>
       </c>
       <c r="Q32" t="n">
-        <v>333.3790894046271</v>
+        <v>291.294812055783</v>
       </c>
       <c r="R32" t="n">
-        <v>74.81014908339729</v>
+        <v>74.81014908339711</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>76.62472628990683</v>
       </c>
       <c r="K34" t="n">
-        <v>131.5267059186998</v>
+        <v>238.2704722633522</v>
       </c>
       <c r="L34" t="n">
-        <v>213.6517235913834</v>
+        <v>271.6774255377422</v>
       </c>
       <c r="M34" t="n">
-        <v>350.9000034365199</v>
+        <v>172.3903425270741</v>
       </c>
       <c r="N34" t="n">
-        <v>350.7836726880931</v>
+        <v>178.9659558436312</v>
       </c>
       <c r="O34" t="n">
-        <v>153.5753408251383</v>
+        <v>153.5753408251381</v>
       </c>
       <c r="P34" t="n">
-        <v>13.63342646305233</v>
+        <v>128.7735798227387</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.206970186693557</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>18.03250898274278</v>
       </c>
       <c r="J35" t="n">
         <v>55.74942056208442</v>
@@ -37318,22 +37318,22 @@
         <v>268.4084871644168</v>
       </c>
       <c r="O35" t="n">
-        <v>427.619519409999</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P35" t="n">
-        <v>179.989397802322</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q35" t="n">
         <v>78.9798213958783</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>179.6274837760609</v>
       </c>
       <c r="S35" t="n">
-        <v>74.51388905283366</v>
+        <v>74.51388905283346</v>
       </c>
       <c r="T35" t="n">
-        <v>9.074737774819287</v>
+        <v>9.074737774819088</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>27.10724675756199</v>
       </c>
       <c r="J38" t="n">
         <v>55.74942056208442</v>
@@ -37558,16 +37558,16 @@
         <v>239.9805624047391</v>
       </c>
       <c r="P38" t="n">
-        <v>389.9258501011319</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q38" t="n">
         <v>78.9798213958783</v>
       </c>
       <c r="R38" t="n">
-        <v>61.29113153410385</v>
+        <v>179.6274837760609</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>74.51388905283346</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>117.0419663281255</v>
       </c>
       <c r="J41" t="n">
         <v>55.74942056208442</v>
@@ -37783,7 +37783,7 @@
         <v>134.8049584074204</v>
       </c>
       <c r="L41" t="n">
-        <v>424.4694661537919</v>
+        <v>204.5119781014416</v>
       </c>
       <c r="M41" t="n">
         <v>259.5483116289827</v>
@@ -37801,13 +37801,13 @@
         <v>78.9798213958783</v>
       </c>
       <c r="R41" t="n">
-        <v>61.29113153410248</v>
+        <v>80.61802643067867</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>74.51388905283341</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>9.074737774819031</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.0325089827437</v>
       </c>
       <c r="J44" t="n">
         <v>55.74942056208442</v>
@@ -38026,7 +38026,7 @@
         <v>259.5483116289827</v>
       </c>
       <c r="N44" t="n">
-        <v>329.6996186985197</v>
+        <v>268.4084871644168</v>
       </c>
       <c r="O44" t="n">
         <v>239.9805624047391</v>
@@ -38035,16 +38035,16 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q44" t="n">
-        <v>298.9373094482286</v>
+        <v>78.9798213958783</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>179.6274837760608</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>74.51388905283341</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.074737774819031</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
